--- a/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/additive/ranking_test4/results.xlsx
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.002</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.731</v>
+        <v>25.252</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>35.23486221775988</v>
+        <v>29.18919716763938</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>35.23491225502452</v>
+        <v>32.07359950733955</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>35.23479288856025</v>
+        <v>31.31176570133228</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>35.23149089139932</v>
+        <v>29.03750588764072</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>35.23145399566485</v>
+        <v>29.11208877648124</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>35.23145430722984</v>
+        <v>31.73415569206874</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>35.2345777578505</v>
+        <v>31.21919622283909</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>35.23452503713209</v>
+        <v>29.92773508563461</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>35.23445329957286</v>
+        <v>30.72615800246898</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>35.22159227775095</v>
+        <v>30.41551905012302</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35.22159745569891</v>
+        <v>30.79717419614316</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>35.22158067188487</v>
+        <v>30.78834622995275</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>35.22072013741385</v>
+        <v>29.77266605907419</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>35.2207810497189</v>
+        <v>31.36289914341489</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>35.22072258763806</v>
+        <v>30.92876310714802</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>35.21692646556286</v>
+        <v>29.04802951821982</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>35.21692308907957</v>
+        <v>30.19755450088261</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35.21684771317308</v>
+        <v>30.85735114209506</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>35.21159355288305</v>
+        <v>24.3870258281701</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>35.21177907076267</v>
+        <v>28.53663451926483</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>35.21175678667455</v>
+        <v>29.27725545840495</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>35.21683829042743</v>
+        <v>29.68244603917642</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>35.21687209139782</v>
+        <v>26.75784518810429</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>35.2311184197781</v>
+        <v>23.37462595730756</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>35.23137216811421</v>
+        <v>31.12324679520529</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>35.23134490319008</v>
+        <v>31.10303839223638</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>35.22746768048537</v>
+        <v>25.42444864420804</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>35.22732054027432</v>
+        <v>25.33177955067769</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>35.22730729118861</v>
+        <v>26.00223695356768</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>35.23077359759419</v>
+        <v>27.6831193130702</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>35.23061723948101</v>
+        <v>25.54886575659206</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35.23060838156098</v>
+        <v>26.45294037137887</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>35.21624660705407</v>
+        <v>26.10344829179574</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>35.21626989956583</v>
+        <v>27.02700263149083</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>35.21625820881445</v>
+        <v>27.25566343780497</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>35.21522939556426</v>
+        <v>24.02848720767835</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>35.21535936173677</v>
+        <v>27.70018747815379</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>35.21533669963264</v>
+        <v>27.72510546533954</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>35.21115567431371</v>
+        <v>23.32491417429974</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>35.21163454914835</v>
+        <v>28.27379759524968</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>35.21166050328398</v>
+        <v>32.00175691151604</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>35.20584798725211</v>
+        <v>22.13817800740316</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>35.20617852232637</v>
+        <v>25.78739433611074</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35.20572212483629</v>
+        <v>26.38014555025132</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>35.21164046367033</v>
+        <v>26.30728472479036</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>35.23353166557295</v>
+        <v>23.11060802466278</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>35.23282035826105</v>
+        <v>30.85667028554575</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>35.23275721627627</v>
+        <v>30.47074511295178</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>35.22914780763033</v>
+        <v>26.26927661394587</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>35.22884496956679</v>
+        <v>25.9570579679763</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>35.22883837061505</v>
+        <v>26.57529995715404</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>35.23244117203161</v>
+        <v>29.10435192056909</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>35.23206284185974</v>
+        <v>26.77070644608002</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>35.2320684304152</v>
+        <v>27.73547320639809</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>35.21840552872121</v>
+        <v>26.94678588756509</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>35.2182897747392</v>
+        <v>27.80190135458751</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>35.21826204557746</v>
+        <v>28.05578904076563</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>35.21739887748351</v>
+        <v>24.45124257852822</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>35.21748124335025</v>
+        <v>28.04533217237566</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>35.21743928166575</v>
+        <v>27.84838096540683</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>35.21373083183929</v>
+        <v>22.84570630092928</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>35.21362450289421</v>
+        <v>27.16906793728498</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.21368911964633</v>
+        <v>31.6861537406538</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>35.2080495913992</v>
+        <v>20.85449448109435</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>35.20789706282816</v>
+        <v>24.30358843531996</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.20749904964503</v>
+        <v>25.52411554304454</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>35.21373343620932</v>
+        <v>28.13386446644984</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>35.21295798548292</v>
+        <v>24.66145066724187</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>35.24011828851939</v>
+        <v>27.10516330739071</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>35.24045969606909</v>
+        <v>31.64726506079142</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>35.24040738203685</v>
+        <v>31.44680911518404</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>35.23784601150733</v>
+        <v>27.38348868930074</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>35.23777761757756</v>
+        <v>28.84662819852505</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>35.23775116506522</v>
+        <v>30.20533335695497</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>35.24024376534203</v>
+        <v>29.75573309292999</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>35.24014324724854</v>
+        <v>28.78384984314947</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>35.24012319654348</v>
+        <v>29.24702427506612</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>35.23002273125431</v>
+        <v>29.39796058046594</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>35.23004822424979</v>
+        <v>29.87499180855685</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>35.23003340687583</v>
+        <v>30.17325476845231</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>35.22937092522906</v>
+        <v>28.32688360388906</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>35.22942936611544</v>
+        <v>30.1414663726365</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>35.2293881520044</v>
+        <v>30.14759731718522</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>35.22600977454499</v>
+        <v>25.8742981376832</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>35.22586001375935</v>
+        <v>28.43521513294581</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>35.22589097246983</v>
+        <v>30.531017407137</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>35.22154578200703</v>
+        <v>22.67987234182997</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>35.22159672891151</v>
+        <v>26.47417830985409</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>35.22141941460225</v>
+        <v>27.72451428282016</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>35.2256714009839</v>
+        <v>27.56483085649623</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>35.22550241610936</v>
+        <v>25.49087278002631</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>35.21514997011088</v>
+        <v>28.26101362439926</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>35.19512480179284</v>
+        <v>27.6712572207778</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>35.19541169247014</v>
+        <v>28.19531178900464</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>35.19537635518785</v>
+        <v>28.43202703097046</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>35.19411868851333</v>
+        <v>27.36645004733648</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>35.19401943643476</v>
+        <v>27.4247962663502</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>35.19394341854932</v>
+        <v>27.87627679852893</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>35.21108793860301</v>
+        <v>29.48391723149309</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>35.21115814987355</v>
+        <v>30.54742830407502</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>35.21116791390436</v>
+        <v>32.57873836019739</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>35.20509975104578</v>
+        <v>24.17824160503659</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>35.20520532483125</v>
+        <v>29.7999571577648</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>35.20513325822962</v>
+        <v>30.56223559425497</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>35.21099718848696</v>
+        <v>30.67314461217611</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>35.21084043245384</v>
+        <v>29.29440082489723</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>35.21079016406222</v>
+        <v>29.28363719041387</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>35.18612352997</v>
+        <v>29.58432530572345</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>35.18634596294945</v>
+        <v>30.29609741801829</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>35.18627925373944</v>
+        <v>30.60661213112173</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>35.18490919506574</v>
+        <v>29.2192417667787</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>35.18480593565798</v>
+        <v>29.20695888735408</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>35.18467226619212</v>
+        <v>30.02619547816984</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>35.20861418387327</v>
+        <v>25.4489790194599</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>35.18807815501506</v>
+        <v>26.42711327322988</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>35.18858743138761</v>
+        <v>26.96884603437196</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>35.18846175589598</v>
+        <v>27.55974121883739</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>35.18729810855217</v>
+        <v>25.77198005825034</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>35.1871553224592</v>
+        <v>26.31365490216161</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>35.18690994321064</v>
+        <v>27.93120073564871</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>35.20700204791209</v>
+        <v>23.96854516269036</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.20565203914857</v>
+        <v>30.57783179331667</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>35.20572636739318</v>
+        <v>33.18217125271864</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>35.1995866911869</v>
+        <v>23.84959505830152</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>35.19904375919812</v>
+        <v>28.22668688783095</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>35.19865842409124</v>
+        <v>27.49709031666197</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>35.20623048743986</v>
+        <v>31.89604579685867</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>35.20473205510824</v>
+        <v>29.91882753209986</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>35.20467945632844</v>
+        <v>28.19807591754344</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>35.17842518076248</v>
+        <v>29.5639732521694</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>35.17905656301972</v>
+        <v>30.36941861275503</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>35.17892849965772</v>
+        <v>30.76408891124491</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>35.17757231153162</v>
+        <v>28.00574126700516</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>35.17754412168538</v>
+        <v>29.70839811602873</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>35.17724937005067</v>
+        <v>30.87747714888753</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>35.21271528803026</v>
+        <v>24.42311895851383</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>35.18995497389049</v>
+        <v>24.16761825693226</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>35.19016689342246</v>
+        <v>24.62118147767909</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>35.19006337175777</v>
+        <v>25.46450779853421</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>35.18892591993875</v>
+        <v>23.62196104674332</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>35.18876073065215</v>
+        <v>23.69132508963849</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>35.20856439161525</v>
+        <v>24.04185775941382</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>35.20818122031575</v>
+        <v>30.34134178715848</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>35.20782596578795</v>
+        <v>33.51091591169437</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>35.20150417613082</v>
+        <v>22.75028791223388</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>35.20134582337808</v>
+        <v>26.96130922225048</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>35.20079614850161</v>
+        <v>26.78711514467335</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>35.20791787937186</v>
+        <v>31.16073769566066</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>35.20754716181771</v>
+        <v>29.0326245080556</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>35.20665646961776</v>
+        <v>27.63102005292875</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>35.18122086365785</v>
+        <v>28.11335669120512</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>35.18143025555908</v>
+        <v>28.83736179204591</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>35.18144557162384</v>
+        <v>29.4493065985397</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>35.18016790244065</v>
+        <v>26.49482449377942</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>35.1800618239636</v>
+        <v>28.02725644690703</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>35.17982005228041</v>
+        <v>29.40323418349605</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>35.2250393553387</v>
+        <v>26.77189927032485</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>35.20707807221132</v>
+        <v>25.43830699000225</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>35.20841598718857</v>
+        <v>25.92080362232541</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>35.20834699331682</v>
+        <v>26.45131176720402</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>35.20735771821643</v>
+        <v>25.54093407545397</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>35.2073063198165</v>
+        <v>25.79336183459756</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>35.20730697120398</v>
+        <v>27.02968792384522</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>35.2219671253015</v>
+        <v>27.15620665996028</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>35.22173042722709</v>
+        <v>31.76538592297716</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>35.22164461122324</v>
+        <v>33.53284815515117</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.21697178976134</v>
+        <v>23.8029381037619</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>35.2169179664661</v>
+        <v>28.72483769039898</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>35.21678108627591</v>
+        <v>30.27308897316652</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>35.22154738615824</v>
+        <v>29.84104747625579</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>35.2213744426846</v>
+        <v>29.76035072124606</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>35.22110974431443</v>
+        <v>30.6593238729525</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>35.20230031116699</v>
+        <v>30.05371333826729</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>35.2024041689801</v>
+        <v>30.86834693972929</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>35.20234946816772</v>
+        <v>31.49881035571776</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>35.20125399110064</v>
+        <v>28.9724511024991</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>35.20123572711587</v>
+        <v>30.65599701964436</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>35.20120984307021</v>
+        <v>31.66747055464555</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>35.21418858390753</v>
+        <v>7.545833514919124</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>35.21405629305773</v>
+        <v>23.64526811553842</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>35.21457866768174</v>
+        <v>19.71579872758187</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>35.20920213521503</v>
+        <v>10.95849346186014</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>35.20894368865039</v>
+        <v>12.16647287837192</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>35.20906474509674</v>
+        <v>26.09781583183414</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>35.21452346301794</v>
+        <v>21.1818645210843</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>35.21428150215291</v>
+        <v>15.28681004156099</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>35.21423212900003</v>
+        <v>20.39759616535362</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>35.19147381858788</v>
+        <v>15.59165596262288</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>35.19153269426894</v>
+        <v>17.88013615103207</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>35.19163926693579</v>
+        <v>17.94552208057527</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>35.19009812707224</v>
+        <v>11.66246988833445</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>35.19023828990601</v>
+        <v>20.55639602536653</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>35.19015397402264</v>
+        <v>18.91321757519525</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>35.18145478091791</v>
+        <v>17.75209230016944</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>35.1814189017267</v>
+        <v>29.11469994703453</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>35.18151740949094</v>
+        <v>31.25613670237842</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>35.17236015984678</v>
+        <v>-2.228682581503854</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>35.17264431740117</v>
+        <v>26.5025330069858</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>35.17234321813043</v>
+        <v>28.28142796933103</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>35.18176301700156</v>
+        <v>27.09191860005324</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>35.18173323451867</v>
+        <v>17.40109709815853</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>35.20653380351841</v>
+        <v>-3.229201301180289</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>35.20672060138716</v>
+        <v>36.41349477684326</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>35.20910240826837</v>
+        <v>34.70572184183144</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>35.20316066265947</v>
+        <v>18.26373308192397</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>35.2024318847123</v>
+        <v>16.2590311918696</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>35.20240528405116</v>
+        <v>18.08253687028262</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>35.20908504087207</v>
+        <v>27.551731919829</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>35.20852510662041</v>
+        <v>13.2506011753984</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>35.20816485321091</v>
+        <v>17.13615035780565</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>35.18292032721106</v>
+        <v>24.08665645790347</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>35.18302480230616</v>
+        <v>28.63749843464041</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>35.18315975119891</v>
+        <v>29.46420684735159</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>35.18145330399275</v>
+        <v>10.77575696918968</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>35.18172023904646</v>
+        <v>29.77569659884396</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>35.18159361247461</v>
+        <v>28.88868332154771</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>35.17265777264408</v>
+        <v>5.583618761232678</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>35.17231732003547</v>
+        <v>41.03878162986591</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>35.17210240052324</v>
+        <v>58.21152262407237</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>35.16219451287309</v>
+        <v>12.3471958893626</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>35.16192770087257</v>
+        <v>41.07922427174891</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>35.16072914718089</v>
+        <v>40.14349322061164</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>35.17284151280092</v>
+        <v>48.85395854067805</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>35.17236370711072</v>
+        <v>41.8514946599574</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>35.21068258058201</v>
+        <v>-9.20157836575045</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>35.21113054897049</v>
+        <v>29.47106388223806</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>35.21145179582708</v>
+        <v>26.90328427017937</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>35.20579236161153</v>
+        <v>18.0030494103751</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>35.20511806513344</v>
+        <v>13.3416113072945</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>35.20507690746948</v>
+        <v>15.86089110823265</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>35.21144332158217</v>
+        <v>28.94863169103336</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>35.21095670187385</v>
+        <v>13.43595908965704</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>35.21057277758838</v>
+        <v>18.1589921742208</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>35.18652071737323</v>
+        <v>23.31572139280519</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>35.18661904574449</v>
+        <v>27.26692136090628</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>35.18669669791988</v>
+        <v>28.41227579306667</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>35.18512649289518</v>
+        <v>8.430205443387521</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>35.18532819538819</v>
+        <v>26.33196831797076</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>35.18520879631696</v>
+        <v>25.05498472973303</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>35.17580815705014</v>
+        <v>2.55462681824622</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>35.17547652350655</v>
+        <v>35.05064496535721</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>35.17569535864636</v>
+        <v>57.19270427128734</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>35.16562061002529</v>
+        <v>8.487594939156121</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>35.16541344783795</v>
+        <v>36.38475345808584</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>35.1644380716217</v>
+        <v>39.9509735934758</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>35.17598632541423</v>
+        <v>43.72431452708121</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>35.17550114743136</v>
+        <v>35.12162516456841</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>35.22313601700992</v>
+        <v>1.830073805235088</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>35.22323123070358</v>
+        <v>23.18506172248549</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>35.22456552083201</v>
+        <v>23.39113684982677</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>35.22038005375017</v>
+        <v>11.19423957868598</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>35.22014444508191</v>
+        <v>14.98825887473157</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>35.22017862900348</v>
+        <v>23.36749953327597</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>35.22452766227008</v>
+        <v>20.8019244793287</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>35.22432577472111</v>
+        <v>12.07078465118972</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>35.2242800146463</v>
+        <v>16.46573618959176</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>35.20634026305226</v>
+        <v>16.68868043986743</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>35.20640866275281</v>
+        <v>18.59942196235688</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>35.20651667091231</v>
+        <v>20.6123566870515</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>35.2053504460842</v>
+        <v>10.17304077580995</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>35.20542515562155</v>
+        <v>18.06909367427459</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>35.20537646688624</v>
+        <v>18.89501520120232</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>35.19837692428956</v>
+        <v>5.622754703313493</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>35.19817590936626</v>
+        <v>28.61316092178006</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>35.19796087321122</v>
+        <v>38.88286308259389</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>35.19055256055204</v>
+        <v>2.905057696380581</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>35.19067893829126</v>
+        <v>32.73017880719797</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>35.19021436210288</v>
+        <v>38.17227122853571</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>35.19805746989712</v>
+        <v>27.20724331215284</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>35.19793394816636</v>
+        <v>26.42793384827851</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>35.17785290607411</v>
+        <v>23.51027395500593</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>35.13637108114455</v>
+        <v>27.14505437509244</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>35.1421140024054</v>
+        <v>31.60201187081348</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>35.142422076115</v>
+        <v>32.57879318111943</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>35.14016218476997</v>
+        <v>23.54186032891334</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>35.14002704119953</v>
+        <v>27.7918430072208</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>35.13983759953137</v>
+        <v>28.89132160892402</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>35.17090397974695</v>
+        <v>18.46407595702472</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>35.17064607679522</v>
+        <v>26.45843591867698</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>35.17105948409623</v>
+        <v>36.52974481681726</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>35.16007973536832</v>
+        <v>-6.749535993409232</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>35.16032963509718</v>
+        <v>26.19428940184003</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>35.16032739910228</v>
+        <v>30.71777687706651</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>35.17067374942852</v>
+        <v>26.45441315399831</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>35.1703341105552</v>
+        <v>21.76575520469718</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>35.17033041652119</v>
+        <v>22.04226973064906</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>35.12608264797493</v>
+        <v>29.8174848715859</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>35.12626419756613</v>
+        <v>34.47988513221185</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>35.12637522829955</v>
+        <v>36.04485247373739</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>35.12385673486198</v>
+        <v>26.11257936992432</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>35.12373914646354</v>
+        <v>27.65742946514805</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>35.12353177182224</v>
+        <v>32.01506038518004</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>35.16646317414718</v>
+        <v>35.00438817664291</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>35.11918537420575</v>
+        <v>48.20129434370093</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>35.12770648193534</v>
+        <v>53.89937984481415</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>35.12816165090532</v>
+        <v>55.86385301437313</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>35.12594621886731</v>
+        <v>39.64120131690323</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>35.12575521357026</v>
+        <v>49.56083906359002</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>35.12522835564992</v>
+        <v>55.88180933976841</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>35.16213457672126</v>
+        <v>-0.145734442794371</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>35.16135915295077</v>
+        <v>42.95741517742695</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>35.15967266436441</v>
+        <v>56.85986599632038</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>35.14813515215451</v>
+        <v>18.56091856898507</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>35.1476985469284</v>
+        <v>49.6751196387254</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>35.14674619451299</v>
+        <v>45.62047135393166</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>35.16023251323364</v>
+        <v>58.27994927142909</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>35.15960372780481</v>
+        <v>54.73971437701397</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>35.15777597812243</v>
+        <v>46.71482635932398</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>35.10933739709953</v>
+        <v>63.84008765754336</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>35.10962026472005</v>
+        <v>70.22551999709852</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>35.11006381626765</v>
+        <v>72.21039653743173</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>35.10759927835092</v>
+        <v>52.1578495564672</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>35.10726862798111</v>
+        <v>66.44461127928378</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>35.10689182893941</v>
+        <v>72.36068129203966</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>35.17257465256941</v>
+        <v>31.95188659120633</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>35.12862884405539</v>
+        <v>42.55652179744863</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>35.13247023507825</v>
+        <v>47.81761081429097</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>35.13274339828251</v>
+        <v>51.46175583713138</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>35.13058408359782</v>
+        <v>34.7788424591001</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>35.13038032320917</v>
+        <v>42.18929258528002</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>35.12991474005363</v>
+        <v>51.86750328528503</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>35.16570133767346</v>
+        <v>-1.592152302378189</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>35.1649838572193</v>
+        <v>39.62025244756304</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>35.16388831410758</v>
+        <v>56.05520758621586</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>35.15243021170579</v>
+        <v>15.78977721334405</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>35.1520247242922</v>
+        <v>45.62870834048442</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>35.15140406518425</v>
+        <v>44.24335692936454</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>35.16402166192323</v>
+        <v>56.48123828289647</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>35.16341708150659</v>
+        <v>51.64041059910399</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>35.16206119333809</v>
+        <v>44.44146076052657</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>35.11545615924209</v>
+        <v>61.34699400536539</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>35.11570283471206</v>
+        <v>67.2171533888513</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>35.11583956000074</v>
+        <v>70.16169970503664</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>35.11347536267748</v>
+        <v>49.55639390946865</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>35.11314925546402</v>
+        <v>62.4657791987603</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>35.1128078153894</v>
+        <v>69.13285098841797</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>35.19549611662931</v>
+        <v>31.99633239957247</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>35.16250766600784</v>
+        <v>28.31326502170523</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>35.16662573530605</v>
+        <v>33.61879400752632</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>35.16675615069873</v>
+        <v>36.36779330654823</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>35.16493758603042</v>
+        <v>24.73344306603799</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>35.16488144715043</v>
+        <v>32.83122020821477</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>35.16478280751485</v>
+        <v>38.69580005118899</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>35.19082813966353</v>
+        <v>9.355536314744661</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>35.19041386453534</v>
+        <v>40.19119430107</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>35.18969027764669</v>
+        <v>49.59166269306887</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>35.1814593750089</v>
+        <v>7.807419132708318</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>35.18139938902169</v>
+        <v>40.39123667563068</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>35.18111296074422</v>
+        <v>49.32058021034612</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>35.18989520309023</v>
+        <v>37.3619774216414</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>35.18963009037907</v>
+        <v>43.54223274007014</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>35.18903899368663</v>
+        <v>48.82362873683276</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>35.15449615887621</v>
+        <v>53.76093598326686</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>35.15466146648065</v>
+        <v>59.83492556784774</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>35.1548368339506</v>
+        <v>63.19601475054946</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>35.15281155486355</v>
+        <v>44.61723003874643</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>35.1527041127094</v>
+        <v>57.97612108895045</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>35.15268637116614</v>
+        <v>63.66448538922174</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>35.22702522883153</v>
+        <v>11.99896614805361</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>35.22692715912626</v>
+        <v>24.47351220064526</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>35.22725635635401</v>
+        <v>21.42528522049714</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>35.22322808799323</v>
+        <v>12.73463110106172</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>35.22302943210283</v>
+        <v>13.59431596949538</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>35.22315792752268</v>
+        <v>24.35696027605955</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>35.22710363545724</v>
+        <v>21.28886435032047</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>35.22689773169859</v>
+        <v>16.51862692339185</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>35.22690578436431</v>
+        <v>20.11294750729269</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>35.21050100312122</v>
+        <v>17.62033891373149</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>35.21053898191573</v>
+        <v>19.35260522745019</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>35.2105005329678</v>
+        <v>19.36992844247594</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>35.20939076734572</v>
+        <v>14.71234632357973</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>35.20951873700623</v>
+        <v>21.58599246646026</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>35.20942627427601</v>
+        <v>20.0927712301922</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>35.20420347114446</v>
+        <v>16.61301661813178</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>35.20414975271686</v>
+        <v>23.52897639644736</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>35.20418594389678</v>
+        <v>25.8163625019958</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>35.19791504096128</v>
+        <v>-0.04888505115899733</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>35.19819472473676</v>
+        <v>19.68287615506934</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>35.19789940874821</v>
+        <v>21.94984356157499</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>35.20465984797041</v>
+        <v>22.09573066149633</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>35.20464695521574</v>
+        <v>12.66215352418798</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>35.22179297212179</v>
+        <v>-1.127609080716937</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>35.22195648427297</v>
+        <v>30.26825214116185</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>35.2234471681593</v>
+        <v>29.64021830044312</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>35.21897780206621</v>
+        <v>13.36679551012698</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>35.21829070680091</v>
+        <v>12.74778928668707</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>35.21836373850198</v>
+        <v>14.91536601280402</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>35.22321130678424</v>
+        <v>21.35082853692658</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>35.2226672317659</v>
+        <v>11.68347729666102</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>35.22250284347744</v>
+        <v>15.18102517314093</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>35.20453649145664</v>
+        <v>18.84656841697634</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>35.2046104479689</v>
+        <v>22.50557061615533</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>35.20448745655024</v>
+        <v>23.3809975367905</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>35.20328922563779</v>
+        <v>9.247315142646897</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>35.2034976548704</v>
+        <v>24.23784548708846</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>35.20340759898259</v>
+        <v>24.01954313790542</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>35.19903163472708</v>
+        <v>1.136808521442042</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>35.19866685879818</v>
+        <v>25.77082098506731</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>35.19861072504648</v>
+        <v>39.14644347881187</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>35.19234076997615</v>
+        <v>2.218422082848079</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>35.19210298098263</v>
+        <v>21.54989090685157</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>35.19095340145761</v>
+        <v>21.56952366951838</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>35.19965412081566</v>
+        <v>30.7662702432308</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>35.19914656915844</v>
+        <v>22.86889274187198</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>35.22547511437019</v>
+        <v>-4.151491265361692</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>35.22593362077323</v>
+        <v>26.9160232081231</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>35.22518696936453</v>
+        <v>25.25516016841764</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>35.22098151280566</v>
+        <v>14.44012542495563</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>35.22034270968641</v>
+        <v>12.4274953904612</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>35.22036303322877</v>
+        <v>14.75341789914166</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>35.2250488467002</v>
+        <v>24.3102473280984</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>35.22456211050259</v>
+        <v>13.85656812679109</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>35.22431847743091</v>
+        <v>17.82632185286096</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>35.20717628985916</v>
+        <v>19.33741879514134</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>35.20724880917434</v>
+        <v>22.67317600362555</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>35.20714544336896</v>
+        <v>23.69780062233924</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>35.20604223894293</v>
+        <v>8.253476079601842</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>35.20621052655049</v>
+        <v>22.72127048273001</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>35.20611717107668</v>
+        <v>21.89219735157037</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>35.2006504807101</v>
+        <v>-0.4115377661014463</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>35.2003402101527</v>
+        <v>21.93451608870599</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>35.20059531038994</v>
+        <v>38.87280760379657</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>35.19374632439601</v>
+        <v>-0.7084800443228048</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>35.19364506007222</v>
+        <v>18.0305219130412</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>35.19269985469185</v>
+        <v>21.06999222832148</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>35.20104485674179</v>
+        <v>27.36822321822445</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>35.20060309968837</v>
+        <v>18.05067299248518</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>35.23372815620251</v>
+        <v>6.667160496012762</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>35.23380961440416</v>
+        <v>24.43166183992539</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>35.23466267187137</v>
+        <v>24.40588517441955</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>35.23159119395415</v>
+        <v>12.14263888900709</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>35.23139508169977</v>
+        <v>16.98901652372101</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>35.23140746837553</v>
+        <v>23.08269899555965</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>35.23459070717745</v>
+        <v>20.52520956963984</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>35.23440206404377</v>
+        <v>15.43006649367568</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>35.2343644581521</v>
+        <v>18.39473876909287</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>35.22148730876114</v>
+        <v>19.20845163687527</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>35.22154367353842</v>
+        <v>21.02049447887735</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>35.22158783225166</v>
+        <v>22.45090669056315</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>35.22074407144319</v>
+        <v>14.29960590193133</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>35.22083402657965</v>
+        <v>21.194641109225</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>35.22076967507973</v>
+        <v>21.74926998259571</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>35.21598569103677</v>
+        <v>7.355704906927478</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>35.21580334430511</v>
+        <v>21.96295523186902</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>35.21573860774232</v>
+        <v>30.1734721836407</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>35.21037832999418</v>
+        <v>1.430417102930612</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>35.2105236349432</v>
+        <v>21.18080031262951</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>35.21011966677212</v>
+        <v>25.82518748316009</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>35.21571291230092</v>
+        <v>20.54070195046496</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>35.21560627599839</v>
+        <v>16.5013179589797</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>35.20108547128162</v>
+        <v>18.05373333944098</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>35.17120270621277</v>
+        <v>18.5072679466686</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>35.17641165915859</v>
+        <v>21.3726186335792</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>35.17668638891359</v>
+        <v>22.2527198229981</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>35.17514236837072</v>
+        <v>16.41320245273485</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>35.17503588163446</v>
+        <v>18.34326729655472</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>35.17485215617739</v>
+        <v>19.74424640555369</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>35.19668934460692</v>
+        <v>16.87109199225063</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>35.19646661948575</v>
+        <v>21.90555859502915</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>35.19682809405815</v>
+        <v>30.29082677515339</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>35.18926446556453</v>
+        <v>-3.518534641876656</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>35.18953866868155</v>
+        <v>20.37015914043955</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>35.18938364819707</v>
+        <v>24.17765482124768</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>35.19678964105074</v>
+        <v>22.26154836586279</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>35.19657561259955</v>
+        <v>17.45265670644122</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>35.19640492403614</v>
+        <v>18.01978909697144</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>35.16501066002673</v>
+        <v>21.99917326785245</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>35.16518521023321</v>
+        <v>25.23061908201939</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>35.16532778174529</v>
+        <v>26.57912764723189</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>35.16364551583876</v>
+        <v>19.86738269457424</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>35.16354878133271</v>
+        <v>20.28247179717179</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>35.16328900828976</v>
+        <v>23.93468022435539</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>35.19287702104543</v>
+        <v>17.64302884234978</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>35.15892972558475</v>
+        <v>25.52781679681302</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>35.16841753054734</v>
+        <v>29.05873585570319</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>35.16882483105175</v>
+        <v>30.70796118436044</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>35.16748224724078</v>
+        <v>20.54814392026498</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>35.16729391279748</v>
+        <v>26.15052511615749</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>35.16683629072361</v>
+        <v>31.20399497050463</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>35.19244025980124</v>
+        <v>-0.2771656545182424</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>35.19162073196927</v>
+        <v>30.45764058036546</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>35.19007834252408</v>
+        <v>40.86204942341215</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>35.18268659223799</v>
+        <v>7.688656821108548</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>35.18235462910538</v>
+        <v>29.13183898797345</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>35.18114468380833</v>
+        <v>25.85089082630165</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>35.19113541451192</v>
+        <v>38.8927638319374</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>35.19045493731507</v>
+        <v>34.29309535582139</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>35.18857897019328</v>
+        <v>27.33990499274253</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>35.15556865994607</v>
+        <v>37.92512414226998</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>35.15591797040203</v>
+        <v>42.1621214302866</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>35.15637744733667</v>
+        <v>43.63932500692201</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>35.15484190106785</v>
+        <v>29.98814244853186</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>35.15466291870629</v>
+        <v>39.45115105188709</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>35.15423998052749</v>
+        <v>43.84638257475336</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>35.1983821851536</v>
+        <v>15.51739315135252</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>35.16767609455775</v>
+        <v>20.49016858086356</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>35.17061643977579</v>
+        <v>23.70882961066421</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>35.17075051537612</v>
+        <v>26.53707311811171</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>35.16941533310843</v>
+        <v>16.00295725482222</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>35.16920138233438</v>
+        <v>19.76696557024449</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>35.16885589338242</v>
+        <v>27.20530961685044</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>35.19433213867128</v>
+        <v>-0.3998168264156803</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>35.19362167564149</v>
+        <v>28.94352468475584</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>35.19268396468006</v>
+        <v>41.62264274207163</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>35.18504809696087</v>
+        <v>5.566662769797329</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>35.18474402252734</v>
+        <v>26.11926967774837</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>35.18389917253153</v>
+        <v>25.14673676212013</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>35.19321022942585</v>
+        <v>37.51227251675667</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>35.19259380690057</v>
+        <v>32.07516397203132</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>35.19114394694133</v>
+        <v>26.23854467450628</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>35.15912602475247</v>
+        <v>35.76403354335444</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>35.15943059873578</v>
+        <v>39.67647501053225</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>35.15954439690627</v>
+        <v>41.98023574609342</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>35.15808528671624</v>
+        <v>27.71422244566821</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>35.15785953675435</v>
+        <v>36.25649712485152</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>35.15748481512914</v>
+        <v>41.48901200440412</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>35.2140262297492</v>
+        <v>21.31780109413905</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>35.1905122871165</v>
+        <v>17.81713774074511</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>35.19346710114829</v>
+        <v>20.99396943491715</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>35.19344783656688</v>
+        <v>23.13984363506514</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>35.19221571896283</v>
+        <v>16.29125131517364</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>35.19216042664398</v>
+        <v>20.31582671399816</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>35.19211414479719</v>
+        <v>25.05820708534836</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>35.21105931379427</v>
+        <v>10.85527139946259</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>35.21063257741183</v>
+        <v>32.53214093790355</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>35.21023081622345</v>
+        <v>39.91294256994299</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>35.20456669210139</v>
+        <v>4.681828048847589</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>35.20448314940292</v>
+        <v>27.73676361847143</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>35.20422134273474</v>
+        <v>34.41462221903303</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>35.21045069251409</v>
+        <v>28.13477047159807</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>35.21016111286282</v>
+        <v>30.82861614207429</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>35.20964730294825</v>
+        <v>34.74808453944174</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>35.18567334145014</v>
+        <v>35.8096944764412</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>35.18584326714551</v>
+        <v>39.94161330940648</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>35.18588509453507</v>
+        <v>42.55811268115575</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>35.18452899144652</v>
+        <v>29.84394890645894</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>35.18447457087871</v>
+        <v>38.72835163563352</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>35.18444633738448</v>
+        <v>43.03637162189709</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>35.2342202853139</v>
+        <v>18.15726141655445</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>35.23414916372985</v>
+        <v>29.39824651664102</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>35.23419589809372</v>
+        <v>27.37798933443984</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>35.23090426433139</v>
+        <v>18.78877108241322</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>35.23077083672766</v>
+        <v>20.23230256183907</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>35.23086950383916</v>
+        <v>29.42223307882136</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>35.23402172218623</v>
+        <v>25.97926934557109</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>35.23388595948916</v>
+        <v>23.10435883777517</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>35.23387652956276</v>
+        <v>26.45318952445682</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>35.22088087199808</v>
+        <v>25.48162656670513</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>35.22089863317306</v>
+        <v>27.24527845320878</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>35.22081005731194</v>
+        <v>27.28970460541833</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>35.21994846213369</v>
+        <v>23.00004220439562</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>35.2200267221052</v>
+        <v>29.40985372135689</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>35.21996692536141</v>
+        <v>28.43916788637807</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>35.2161696602163</v>
+        <v>19.3128589765263</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>35.2161704445927</v>
+        <v>24.91573760068662</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>35.21607717901363</v>
+        <v>27.19680721236175</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>35.21111595266593</v>
+        <v>5.91366741812357</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>35.21130163722671</v>
+        <v>21.31166432372441</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>35.21112595699616</v>
+        <v>24.25352545562756</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>35.2164383311147</v>
+        <v>21.93371576561322</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>35.21644869860207</v>
+        <v>15.66173607745271</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>35.23001447989594</v>
+        <v>4.395508423749735</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>35.23012922778028</v>
+        <v>31.93480896438643</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>35.23093673916049</v>
+        <v>31.84853044302651</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>35.22714737377394</v>
+        <v>14.66883474655405</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>35.2266528121001</v>
+        <v>16.4067887622946</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>35.22676350196154</v>
+        <v>19.20128258501466</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>35.23055863637822</v>
+        <v>22.8015546038983</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>35.23018213432628</v>
+        <v>17.3649798069636</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>35.23011497200484</v>
+        <v>20.85041142428122</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>35.21575944569944</v>
+        <v>22.97413170416405</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>35.21580104456856</v>
+        <v>26.51621981097967</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>35.2155936968699</v>
+        <v>27.3188690126453</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>35.21466698733171</v>
+        <v>15.43203680534518</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>35.21476502541977</v>
+        <v>28.85735274907553</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>35.21474292396469</v>
+        <v>29.08191010622172</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>35.21182140240118</v>
+        <v>1.480505514367557</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>35.21159091255496</v>
+        <v>23.17290611966705</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>35.2114405085482</v>
+        <v>31.87795202655691</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>35.20636736318815</v>
+        <v>1.379289560542723</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>35.20618346239399</v>
+        <v>17.83073927012183</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>35.20542565480029</v>
+        <v>16.96203896495231</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>35.21212240242663</v>
+        <v>23.57763118521624</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>35.21176631381298</v>
+        <v>20.21417020649089</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>35.23304275263797</v>
+        <v>1.172311747074268</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>35.23242168202881</v>
+        <v>29.03767711209392</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>35.23233419370799</v>
+        <v>27.75219331103482</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>35.22875929393997</v>
+        <v>14.27671262712269</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>35.22837666444825</v>
+        <v>15.71262912568829</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>35.22836236262875</v>
+        <v>18.20567656894631</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>35.23205558255489</v>
+        <v>23.54140214827203</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>35.23157681668908</v>
+        <v>17.99465314551884</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>35.23157152030281</v>
+        <v>21.57763464250796</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>35.2178519312864</v>
+        <v>21.25435596859177</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>35.21775281798515</v>
+        <v>24.8065857393653</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>35.21771976062369</v>
+        <v>25.59552715555738</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>35.21685490135713</v>
+        <v>12.18519685623472</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>35.21696015589585</v>
+        <v>25.66956396483065</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>35.2169074486933</v>
+        <v>25.13556485656801</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>35.21303704363682</v>
+        <v>2.001924916922917</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>35.21286985916906</v>
+        <v>22.10397112379327</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>35.21296569261487</v>
+        <v>33.36136284851914</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>35.20737034646992</v>
+        <v>1.598517969140438</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>35.20714130335743</v>
+        <v>18.36539685945674</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>35.20667221719838</v>
+        <v>19.32940682859793</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>35.2131223987462</v>
+        <v>24.36986923923842</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>35.21214729655485</v>
+        <v>19.68895421791507</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>35.23954882230722</v>
+        <v>11.03127390800793</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>35.24008514996893</v>
+        <v>27.04827865458571</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>35.240010311273</v>
+        <v>27.54635375911312</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>35.23746258817799</v>
+        <v>14.77432833166835</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>35.23737453171458</v>
+        <v>21.11071177504479</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>35.23734388199251</v>
+        <v>26.08029319976512</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>35.23987398681496</v>
+        <v>22.95479360244763</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>35.23975192058871</v>
+        <v>21.16451777721182</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>35.2397223852804</v>
+        <v>24.55534782834439</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>35.22948760468969</v>
+        <v>24.08091206279121</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>35.22953405692761</v>
+        <v>26.21857913125064</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>35.22951715278543</v>
+        <v>27.27375633622793</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>35.22884729858565</v>
+        <v>19.50946172665696</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>35.22891266956353</v>
+        <v>26.53186133078261</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>35.2288676907239</v>
+        <v>27.36808448373787</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>35.22535669345039</v>
+        <v>11.34129471987807</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>35.22513985860346</v>
+        <v>23.75933983979228</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>35.2251785593335</v>
+        <v>30.48373421015487</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>35.22086308629232</v>
+        <v>5.843665399255656</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>35.22089879101968</v>
+        <v>22.17775139190795</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>35.22068859655561</v>
+        <v>25.91191332357535</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>35.22503972139781</v>
+        <v>20.92347840732802</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>35.22480689092122</v>
+        <v>19.2712386741586</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>35.2138346169361</v>
+        <v>21.09303338033862</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>35.19400623743584</v>
+        <v>20.63403753555513</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>35.19436357481697</v>
+        <v>23.16712481221739</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>35.19432308224527</v>
+        <v>24.03542917674379</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>35.19308686673019</v>
+        <v>18.68827695748914</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>35.19295790121726</v>
+        <v>20.37179824431559</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>35.19286556451738</v>
+        <v>22.18356228352815</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>35.2100733307391</v>
+        <v>17.86440456238687</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>35.21011349001645</v>
+        <v>20.92400167768896</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>35.21016721830101</v>
+        <v>28.40379219656025</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>35.20406693001187</v>
+        <v>2.859842842585095</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>35.20421307661428</v>
+        <v>20.32838950300706</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>35.20413674097587</v>
+        <v>24.74883330423286</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>35.21002513201514</v>
+        <v>21.7110539273712</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>35.2098126659977</v>
+        <v>17.79400870103844</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>35.20978431739683</v>
+        <v>19.51981896449623</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>35.18482978441389</v>
+        <v>23.22720724605996</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>35.1850862036658</v>
+        <v>25.82876765583328</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>35.18501409377463</v>
+        <v>27.1622652415011</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>35.18367799452334</v>
+        <v>21.53495712874985</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>35.18354735843912</v>
+        <v>21.4506946355854</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>35.18339550408491</v>
+        <v>25.09980198750584</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>35.20733423199989</v>
+        <v>14.65024326950019</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>35.18728524687381</v>
+        <v>21.6293382355695</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>35.18790432099905</v>
+        <v>24.92121055360768</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>35.18775356095949</v>
+        <v>25.83559317265405</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>35.18667109398564</v>
+        <v>17.5671624577814</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>35.18649471367726</v>
+        <v>23.82131373508642</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>35.1861815551228</v>
+        <v>26.53931567352814</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>35.20653914538413</v>
+        <v>2.021034386263167</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>35.20486032355873</v>
+        <v>28.92353579030372</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>35.20497284510613</v>
+        <v>36.03691810115223</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>35.19892985190439</v>
+        <v>4.580400713371031</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>35.19826577862221</v>
+        <v>23.09039179848942</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>35.19783951219023</v>
+        <v>19.86826075572791</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>35.20562548169367</v>
+        <v>29.8609421600987</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>35.20381665008856</v>
+        <v>29.7192795054731</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>35.20376421925116</v>
+        <v>22.57494617184953</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>35.17757000990866</v>
+        <v>30.50639111203725</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>35.17831194861714</v>
+        <v>34.51301834875287</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>35.17816143918746</v>
+        <v>35.32334266164979</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>35.17690320459941</v>
+        <v>23.46660406557825</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>35.1768384193814</v>
+        <v>33.19082185906932</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>35.17648760292782</v>
+        <v>35.72126510514707</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>35.21171048633167</v>
+        <v>16.19061623733103</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>35.18897484938119</v>
+        <v>19.70440028330007</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>35.18925624209728</v>
+        <v>22.84366462963183</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>35.18913125755801</v>
+        <v>24.54386747498054</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>35.18806658410719</v>
+        <v>15.75215222220323</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>35.18786500190527</v>
+        <v>20.73466308281454</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>35.18765147703468</v>
+        <v>25.19750987328898</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>35.20795006542517</v>
+        <v>3.336608020485684</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>35.2068855486769</v>
+        <v>29.52234885288943</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>35.20703197892244</v>
+        <v>38.28308548664895</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>35.2007245663897</v>
+        <v>4.02088182466872</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>35.20023011987077</v>
+        <v>22.28435967891077</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>35.19989256815969</v>
+        <v>20.74411917920983</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>35.20719655215034</v>
+        <v>30.77417053942974</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>35.20570615796937</v>
+        <v>30.07118701041712</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>35.20568699491118</v>
+        <v>23.82338571805012</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>35.18023503207152</v>
+        <v>29.56841981928106</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>35.1806370320593</v>
+        <v>33.55071726172532</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>35.18049572479521</v>
+        <v>34.94917116266706</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>35.17931092933571</v>
+        <v>22.38552120399969</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>35.1791846692969</v>
+        <v>31.59111844459947</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>35.17887162777946</v>
+        <v>34.80317745129153</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>35.22407933700028</v>
+        <v>23.33532432310957</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>35.20742613910877</v>
+        <v>21.41851005434073</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>35.20752177840773</v>
+        <v>24.12148126471796</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>35.20746687924663</v>
+        <v>25.91324001583175</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>35.20649364495144</v>
+        <v>20.06567762683826</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>35.2064398253391</v>
+        <v>23.96902831826896</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>35.20641728482395</v>
+        <v>27.92668269786911</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>35.2213198906438</v>
+        <v>11.98639913839744</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>35.22088101207929</v>
+        <v>30.21872766726848</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>35.22087171634338</v>
+        <v>36.12198544927929</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>35.2162260556625</v>
+        <v>7.69910291976511</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>35.2160727775076</v>
+        <v>26.88725240574303</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>35.21599229913321</v>
+        <v>31.63198275405864</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>35.22085549942383</v>
+        <v>25.99199710816261</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>35.22031033313334</v>
+        <v>29.57582043087367</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>35.22031169575392</v>
+        <v>32.43531238259155</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>35.20134649435236</v>
+        <v>33.2859164462546</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>35.20149206626479</v>
+        <v>36.91046379727458</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>35.20143309554079</v>
+        <v>38.96323696521597</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>35.20036236172102</v>
+        <v>28.49433171074223</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>35.20034875317771</v>
+        <v>36.4917651654407</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>35.20029623089202</v>
+        <v>39.87184107261704</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>35.23340852042299</v>
+        <v>29.66292194483714</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>35.23318181563793</v>
+        <v>38.00362463488178</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>35.23306073155032</v>
+        <v>36.55328712147086</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>35.2295528977691</v>
+        <v>31.73771011997193</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>35.22956400929484</v>
+        <v>32.8662559351702</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>35.22953316720678</v>
+        <v>39.69982124526178</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>35.23283901381668</v>
+        <v>36.79778536841998</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>35.23287534197105</v>
+        <v>34.56557201361515</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>35.23282105990991</v>
+        <v>37.09543070290952</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>35.21887036706499</v>
+        <v>36.98151193991445</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>35.2189193033191</v>
+        <v>38.30379550914806</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>35.218900694114</v>
+        <v>38.34154332284589</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>35.21795687908939</v>
+        <v>34.47085141946387</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>35.21803158067755</v>
+        <v>39.25137946703607</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>35.21797015873021</v>
+        <v>38.4794611800529</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>35.213742596378</v>
+        <v>28.71822775368193</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>35.21385484908558</v>
+        <v>32.89810862182843</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>35.21372979454249</v>
+        <v>34.70624191392439</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>35.20795485496538</v>
+        <v>21.21566457514002</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>35.20803904391058</v>
+        <v>32.49870954438658</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>35.20790246018132</v>
+        <v>34.42079367620575</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>35.2137407184117</v>
+        <v>33.72047320218151</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>35.2135843605838</v>
+        <v>28.27651409834028</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>35.22895945527898</v>
+        <v>18.68994032897405</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>35.22968695946882</v>
+        <v>39.47001020977936</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>35.22960824648678</v>
+        <v>39.5263535200942</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>35.2258782043726</v>
+        <v>31.90656358183929</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>35.22564262505041</v>
+        <v>33.83603820246346</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>35.22555675322189</v>
+        <v>35.77012607863504</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>35.22955856658321</v>
+        <v>35.94610141531231</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>35.22923528321788</v>
+        <v>33.17794576444258</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>35.22920045217018</v>
+        <v>35.53375367847907</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>35.2136995990266</v>
+        <v>39.96684165287505</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>35.21382009766069</v>
+        <v>42.86667636528252</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>35.21377325645357</v>
+        <v>43.35294243849242</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>35.21272725264663</v>
+        <v>33.54062987251555</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>35.21287306705332</v>
+        <v>43.97854484255076</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>35.21276651954906</v>
+        <v>44.12265539443573</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>35.20830595958743</v>
+        <v>17.21167385188935</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>35.20843503594796</v>
+        <v>32.01400824174983</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>35.20837224457311</v>
+        <v>39.47334741386049</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>35.20259847366412</v>
+        <v>22.74428626225996</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>35.20233862412479</v>
+        <v>34.1936373604991</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>35.20188252398431</v>
+        <v>33.98543941239433</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>35.20892117526702</v>
+        <v>38.83461640182793</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>35.2080614019297</v>
+        <v>34.65517306814893</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>35.23155475243207</v>
+        <v>16.68979633629033</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>35.23119463516306</v>
+        <v>37.56881086122889</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>35.2311046680982</v>
+        <v>36.9327965108565</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>35.22763770769596</v>
+        <v>31.1675033142774</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>35.22737201570868</v>
+        <v>32.66191222687167</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>35.22729974171848</v>
+        <v>34.65834271187263</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>35.23113264226819</v>
+        <v>36.65070645722618</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>35.23078370191426</v>
+        <v>33.59731837402943</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>35.23076751475628</v>
+        <v>36.11881094210895</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>35.21602107366925</v>
+        <v>38.20879373987359</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>35.2161674290717</v>
+        <v>40.99886720520258</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>35.21612312946191</v>
+        <v>41.56642290105167</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>35.21514667508447</v>
+        <v>30.57245113292074</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>35.21525352799059</v>
+        <v>40.92036177387308</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>35.21516128245628</v>
+        <v>40.64322663201361</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>35.21038694004414</v>
+        <v>17.5394324055708</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>35.21038795010802</v>
+        <v>31.20080772658667</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>35.21040209019875</v>
+        <v>40.36672989918835</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>35.20460762288391</v>
+        <v>21.49085565093147</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>35.20444248621517</v>
+        <v>33.00875626625437</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>35.20408827802463</v>
+        <v>33.93704441481704</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>35.21082487369274</v>
+        <v>37.85808935817282</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>35.21003505231077</v>
+        <v>33.00292018816769</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>35.23875882345742</v>
+        <v>23.6369153681928</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>35.23921121754177</v>
+        <v>36.50775886182132</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>35.23914803932632</v>
+        <v>36.55289968979204</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>35.23655063766088</v>
+        <v>30.47626036412476</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>35.23647177272432</v>
+        <v>36.0479277180767</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>35.23642332555836</v>
+        <v>39.78451476038344</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>35.23910204917503</v>
+        <v>34.83468748919335</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>35.23900237403861</v>
+        <v>34.79153457597338</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>35.2389807918011</v>
+        <v>36.6290848442355</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>35.22811785790934</v>
+        <v>38.18476528954474</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>35.22823853769039</v>
+        <v>39.96766019034855</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>35.22821890955063</v>
+        <v>40.75713105745621</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>35.22750365073986</v>
+        <v>34.02428673456892</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>35.2275458492397</v>
+        <v>39.84824607798178</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>35.22749708467321</v>
+        <v>40.2404620990778</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>35.22341307934379</v>
+        <v>22.34403788084617</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>35.22332223293316</v>
+        <v>31.1129371026895</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>35.22336510954696</v>
+        <v>35.68162318589536</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>35.21862780476903</v>
+        <v>20.12231824062244</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>35.21868531409557</v>
+        <v>31.97762959523993</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>35.21854742285053</v>
+        <v>34.50605778581344</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>35.22321542725729</v>
+        <v>31.36760705296187</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>35.22300725897853</v>
+        <v>29.43333433041496</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>35.21239835921367</v>
+        <v>32.01549881129728</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>35.18983108222965</v>
+        <v>31.81584747234827</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>35.19004524326328</v>
+        <v>33.53489435309134</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>35.18998726753527</v>
+        <v>34.14597895463925</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>35.18854036319524</v>
+        <v>29.96056487634315</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>35.18857106149991</v>
+        <v>31.18032735453263</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>35.18846146108657</v>
+        <v>32.41089375428632</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>35.2077109354479</v>
+        <v>27.8419817580454</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>35.20784454740549</v>
+        <v>30.93946294609914</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>35.20769027120199</v>
+        <v>36.67283329615304</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>35.20127789850672</v>
+        <v>18.02433989706289</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>35.20141973509224</v>
+        <v>31.9623241888622</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>35.20122979972697</v>
+        <v>34.85244350814037</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>35.20772307301932</v>
+        <v>33.1364383707413</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>35.207566808648</v>
+        <v>30.51886546892923</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>35.20740524549864</v>
+        <v>31.52487437395348</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>35.18072606316905</v>
+        <v>33.5174779543725</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>35.18109878109567</v>
+        <v>35.462502289195</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>35.18100673295439</v>
+        <v>36.46541023956774</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>35.17939208562476</v>
+        <v>31.7896745290896</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>35.1794297236461</v>
+        <v>32.20176142666646</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>35.17923150959208</v>
+        <v>34.81960639375402</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>35.20519686562172</v>
+        <v>31.10468954610344</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>35.18207545930001</v>
+        <v>38.60812075549738</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>35.1826873835119</v>
+        <v>40.69948864520312</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>35.18257510386803</v>
+        <v>41.61835513614723</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>35.18105785882067</v>
+        <v>35.47241464051245</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>35.18104753490972</v>
+        <v>38.99769610059975</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>35.18086542764501</v>
+        <v>41.67699880951663</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>35.20228901803939</v>
+        <v>17.43067533177246</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>35.20078970510156</v>
+        <v>35.94187568279091</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>35.20199392134995</v>
+        <v>40.94936712080228</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>35.1936156965367</v>
+        <v>24.99189728442349</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>35.19382227948638</v>
+        <v>38.0776177894877</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>35.19349019873572</v>
+        <v>34.87242462948604</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>35.20053184614707</v>
+        <v>42.99809034912759</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>35.20047345828893</v>
+        <v>41.13545769630445</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>35.20125289124142</v>
+        <v>35.69756579308204</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>35.1716163901458</v>
+        <v>42.69911716049629</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>35.17160912054764</v>
+        <v>45.266144041346</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>35.17152599410901</v>
+        <v>45.8572239534898</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>35.16970805068478</v>
+        <v>37.40667088837761</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>35.16975167705653</v>
+        <v>43.43595644347412</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>35.16620525110574</v>
+        <v>45.24851919163454</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>35.21040769377199</v>
+        <v>30.73799595601581</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>35.18545320297066</v>
+        <v>35.64257433058398</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>35.18544108543952</v>
+        <v>37.61657636766709</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>35.18534624157922</v>
+        <v>39.09227595810871</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>35.18383456420224</v>
+        <v>32.5393181754596</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>35.18385302509319</v>
+        <v>35.20155098628261</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>35.18327325396753</v>
+        <v>38.97929615246714</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>35.20241586323063</v>
+        <v>18.11575570466</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>35.20311819914285</v>
+        <v>36.04483511643524</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>35.20430470937638</v>
+        <v>42.48890346115341</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>35.19629366748609</v>
+        <v>23.92888954716226</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>35.19652757065754</v>
+        <v>36.8293147275461</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>35.19625510476554</v>
+        <v>34.97907448841205</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>35.20295947761146</v>
+        <v>42.32701350267674</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>35.20293296000379</v>
+        <v>40.3439832252505</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>35.20355413015432</v>
+        <v>35.78780830867255</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>35.17516591007433</v>
+        <v>41.32876715217009</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>35.1751326978932</v>
+        <v>43.79320190393383</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>35.17503632714903</v>
+        <v>44.90798385344576</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>35.17333611100193</v>
+        <v>35.80346748487767</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>35.17336989216525</v>
+        <v>41.52656007515775</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>35.16710593941542</v>
+        <v>43.91567079159071</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>35.2230551069424</v>
+        <v>31.95178676794091</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>35.2043742001288</v>
+        <v>31.31991879615902</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>35.20438981450227</v>
+        <v>33.24804261314605</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>35.20432243592171</v>
+        <v>34.39676606656133</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>35.20317231008658</v>
+        <v>30.09620541885176</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>35.20320988025532</v>
+        <v>32.62969489431278</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>35.20357023892824</v>
+        <v>35.23871729149224</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>35.21832137565385</v>
+        <v>22.51480896250188</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>35.21859428145186</v>
+        <v>35.76346186706377</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>35.218995240571</v>
+        <v>39.64167341196721</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>35.21336980357173</v>
+        <v>20.69443578738121</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>35.21348540385043</v>
+        <v>34.80256645698302</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>35.21344324853613</v>
+        <v>38.04384094294453</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>35.21833031966515</v>
+        <v>34.20352021093417</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>35.21831883580845</v>
+        <v>36.52453871776569</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>35.21847749163315</v>
+        <v>38.5213420299155</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>35.19766962538665</v>
+        <v>39.62394539118257</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>35.19767042696181</v>
+        <v>42.23384417810951</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>35.19762094615808</v>
+        <v>43.64489491650231</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>35.19630763820162</v>
+        <v>35.78615566511782</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>35.19634409835395</v>
+        <v>41.50693064085031</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>35.19339963451441</v>
+        <v>43.69910315489782</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.281</v>
+        <v>21.772</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.106</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.252</v>
+        <v>20.353</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.411</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.021</v>
+        <v>21.013</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.18919716763938</v>
+        <v>-10.60964514116685</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>32.07359950733955</v>
+        <v>27.61391934135989</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31.31176570133228</v>
+        <v>35.62230202645574</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.03750588764072</v>
+        <v>7.434216822572157</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.11208877648124</v>
+        <v>17.57175847804902</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>31.73415569206874</v>
+        <v>22.97173483802854</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>31.21919622283909</v>
+        <v>19.13143226252331</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.92773508563461</v>
+        <v>22.33209276453957</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.72615800246898</v>
+        <v>26.42026067104533</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>30.41551905012302</v>
+        <v>30.73904395253627</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30.79717419614316</v>
+        <v>37.65572315830028</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>30.78834622995275</v>
+        <v>41.24439827557924</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.77266605907419</v>
+        <v>15.66845694221573</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>31.36289914341489</v>
+        <v>32.28281342196661</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>30.92876310714802</v>
+        <v>38.50911514026816</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.04802951821982</v>
+        <v>-4.635629130095676</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>30.19755450088261</v>
+        <v>33.59267245466052</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>30.85735114209506</v>
+        <v>41.60286632624232</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>24.3870258281701</v>
+        <v>13.40724623180134</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.53663451926483</v>
+        <v>23.54839148866191</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.27725545840495</v>
+        <v>28.9495088989435</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.68244603917642</v>
+        <v>25.10769018939553</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>26.75784518810429</v>
+        <v>28.31109405270982</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>23.37462595730756</v>
+        <v>-4.877442695956884</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>31.12324679520529</v>
+        <v>33.34658860833807</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>31.10303839223638</v>
+        <v>41.35496870834098</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>25.42444864420804</v>
+        <v>13.16722514987649</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25.33177955067769</v>
+        <v>23.30502817656</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>26.00223695356768</v>
+        <v>28.70498443636328</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>27.6831193130702</v>
+        <v>24.86466658761791</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>25.54886575659206</v>
+        <v>28.06552497543376</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>26.45294037137887</v>
+        <v>32.15367120555894</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>26.10344829179574</v>
+        <v>36.47265896410934</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>27.02700263149083</v>
+        <v>43.38942609472761</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>27.25566343780497</v>
+        <v>46.97810510050536</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>24.02848720767835</v>
+        <v>21.40178131721942</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>27.70018747815379</v>
+        <v>38.01646068139442</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>27.72510546533954</v>
+        <v>44.24274507486294</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>23.32491417429974</v>
+        <v>1.097629409804231</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.27379759524968</v>
+        <v>39.3263978662101</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>32.00175691151604</v>
+        <v>47.33658916424591</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>22.13817800740316</v>
+        <v>19.14131075690799</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>25.78739433611074</v>
+        <v>29.2827174234009</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>26.38014555025132</v>
+        <v>34.68381474051037</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>26.30728472479036</v>
+        <v>34.04558253733902</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>23.11060802466278</v>
+        <v>-1.71121063338077</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>30.85667028554575</v>
+        <v>36.51285279075663</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>30.47074511295178</v>
+        <v>44.52121882248335</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>26.26927661394587</v>
+        <v>16.33377931719454</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>25.9570579679763</v>
+        <v>26.47166523265551</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>26.57529995715404</v>
+        <v>31.87160866541391</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.10435192056909</v>
+        <v>28.0312536830235</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>26.77070644608002</v>
+        <v>31.23219888567715</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>27.73547320639809</v>
+        <v>35.32033827456101</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>26.94678588756509</v>
+        <v>39.63931866350438</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>27.80190135458751</v>
+        <v>46.55609342553331</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>28.05578904076563</v>
+        <v>50.14476998043247</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>24.45124257852822</v>
+        <v>24.5683795727139</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28.04533217237566</v>
+        <v>41.18313683989393</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>27.84838096540683</v>
+        <v>47.40940969113402</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>22.84570630092928</v>
+        <v>4.264339310896762</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>27.16906793728498</v>
+        <v>42.49313988939608</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>31.6861537406538</v>
+        <v>50.50331711693335</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>20.85449448109435</v>
+        <v>22.30834280900664</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24.30358843531996</v>
+        <v>32.44983236765179</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.52411554304454</v>
+        <v>37.85091685637715</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.13386446644984</v>
+        <v>34.00904574054474</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>24.66145066724187</v>
+        <v>37.21273434051605</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>27.10516330739071</v>
+        <v>-7.828097401059463</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>31.64726506079142</v>
+        <v>30.3957134710154</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>31.44680911518404</v>
+        <v>38.4041445000112</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>27.38348868930074</v>
+        <v>10.21624608385313</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.84662819852505</v>
+        <v>20.35396340586013</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>30.20533335695497</v>
+        <v>25.75397503339187</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.75573309292999</v>
+        <v>21.91352192777871</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.78384984314947</v>
+        <v>25.11432517816664</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.24702427506612</v>
+        <v>29.20252714236407</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.39796058046594</v>
+        <v>33.52130844338765</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.87499180855685</v>
+        <v>40.4380355257388</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>30.17325476845231</v>
+        <v>44.02674161788039</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>28.32688360388906</v>
+        <v>18.45056309988857</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>30.1414663726365</v>
+        <v>35.06512003028823</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>30.14759731718522</v>
+        <v>41.29146527718515</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>25.8742981376832</v>
+        <v>-1.853533079448848</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>28.43521513294581</v>
+        <v>36.37501492061952</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>30.531017407137</v>
+        <v>44.38525714350479</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>22.67987234182997</v>
+        <v>16.18982385039172</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>26.47417830985409</v>
+        <v>26.33114479873203</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>27.72451428282016</v>
+        <v>31.73229748004454</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>27.56483085649623</v>
+        <v>27.89032822940843</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>25.49087278002631</v>
+        <v>31.09387486386541</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.26101362439926</v>
+        <v>32.4001432241229</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>27.6712572207778</v>
+        <v>36.71995751148793</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>28.19531178900464</v>
+        <v>43.63845145605902</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.43202703097046</v>
+        <v>47.22792209885054</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>27.36645004733648</v>
+        <v>21.6475016396245</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>27.4247962663502</v>
+        <v>38.2658034332209</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>27.87627679852893</v>
+        <v>44.49347691534152</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.48391723149309</v>
+        <v>4.483364505526229</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>30.54742830407502</v>
+        <v>42.71178295211396</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>32.57873836019739</v>
+        <v>50.72223092592802</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>24.17824160503659</v>
+        <v>22.52764628454307</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.7999571577648</v>
+        <v>32.66935592341432</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>30.56223559425497</v>
+        <v>38.07074233617428</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>30.67314461217611</v>
+        <v>34.22887851629437</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.29440082489723</v>
+        <v>37.43290207517194</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.28363719041387</v>
+        <v>41.52213795208914</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.58432530572345</v>
+        <v>45.84343066395573</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>30.29609741801829</v>
+        <v>52.76216877325319</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>30.60661213112173</v>
+        <v>56.35174541646941</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.2192417667787</v>
+        <v>30.77037492363448</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.20695888735408</v>
+        <v>47.38919569060241</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>30.02619547816984</v>
+        <v>53.61712551590247</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>25.4489790194599</v>
+        <v>38.1346100381717</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>26.42711327322988</v>
+        <v>42.45462880006144</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>26.96884603437196</v>
+        <v>49.37321068040902</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>27.55974121883739</v>
+        <v>52.96268521529376</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>25.77198005825034</v>
+        <v>27.38188227177446</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>26.31365490216161</v>
+        <v>44.00050699255272</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>27.93120073564871</v>
+        <v>50.22816315841251</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>23.96854516269036</v>
+        <v>10.21697287847329</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>30.57783179331667</v>
+        <v>48.44585819332045</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>33.18217125271864</v>
+        <v>56.45630358792633</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>23.84959505830152</v>
+        <v>28.26206067130275</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>28.22668688783095</v>
+        <v>38.40403171683809</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>27.49709031666197</v>
+        <v>43.80539803333286</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>31.89604579685867</v>
+        <v>39.96351895415049</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.91882753209986</v>
+        <v>43.16774042583805</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>28.19807591754344</v>
+        <v>47.25695463098899</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>29.5639732521694</v>
+        <v>51.5784518238062</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>30.36941861275503</v>
+        <v>58.49727786830047</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>30.76408891124491</v>
+        <v>62.08685840139393</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.00574126700516</v>
+        <v>36.50510542887881</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.70839811602873</v>
+        <v>53.12424911892381</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>30.87747714888753</v>
+        <v>59.35216162461361</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>24.42311895851383</v>
+        <v>41.30175499904809</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>24.16761825693226</v>
+        <v>45.6217663677551</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>24.62118147767909</v>
+        <v>52.54035587722959</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>25.46450779853421</v>
+        <v>56.12982796053532</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>23.62196104674332</v>
+        <v>30.5489583968454</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>23.69132508963849</v>
+        <v>47.16766102511227</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>24.04185775941382</v>
+        <v>13.38387436042175</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>30.34134178715848</v>
+        <v>51.61279179795523</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>33.51091591169437</v>
+        <v>59.62322311670985</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>22.75028791223388</v>
+        <v>31.42928431323211</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>26.96130922225048</v>
+        <v>41.57133824976623</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>26.78711514467335</v>
+        <v>46.97269173423857</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>31.16073769566066</v>
+        <v>43.13077553043584</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.0326245080556</v>
+        <v>46.33508381999675</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>27.63102005292875</v>
+        <v>50.42429118053795</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>28.11335669120512</v>
+        <v>54.74578097605914</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.83736179204591</v>
+        <v>61.66461464861985</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.4493065985397</v>
+        <v>65.25419272829586</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>26.49482449377942</v>
+        <v>39.67237313641218</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>28.02725644690703</v>
+        <v>56.29159473256746</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.40323418349605</v>
+        <v>62.51949569052638</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>26.77189927032485</v>
+        <v>35.18295809539327</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>25.43830699000225</v>
+        <v>39.5027703746994</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>25.92080362232541</v>
+        <v>46.4213122017068</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>26.45131176720402</v>
+        <v>50.0108138241533</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>25.54093407545397</v>
+        <v>24.43015616593326</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>25.79336183459756</v>
+        <v>41.04865843766586</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>27.02968792384522</v>
+        <v>47.27637545291728</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>27.15620665996028</v>
+        <v>7.265858830555349</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>31.76538592297716</v>
+        <v>45.49452369480653</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>33.53284815515117</v>
+        <v>53.50502001327507</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>23.8029381037619</v>
+        <v>25.3106222003751</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>28.72483769039898</v>
+        <v>35.45250753379847</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>30.27308897316652</v>
+        <v>40.85392921357189</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.84104747625579</v>
+        <v>37.0119148644466</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.76035072124606</v>
+        <v>40.21608119622695</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>30.6593238729525</v>
+        <v>44.30535113101692</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>30.05371333826729</v>
+        <v>48.62664183621681</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>30.86834693972929</v>
+        <v>55.54542782919455</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>31.49881035571776</v>
+        <v>59.13503544931044</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>28.9724511024991</v>
+        <v>33.55342774970873</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>30.65599701964436</v>
+        <v>50.17244899692767</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>31.66747055464555</v>
+        <v>56.40042235102592</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>7.545833514919124</v>
+        <v>-0.5500970167067543</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>23.64526811553842</v>
+        <v>37.67357337205456</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>19.71579872758187</v>
+        <v>45.68157667775679</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>10.95849346186014</v>
+        <v>17.49360447569441</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>12.16647287837192</v>
+        <v>27.6315384503063</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>26.09781583183414</v>
+        <v>33.03121008021904</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>21.1818645210843</v>
+        <v>29.19127598561775</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>15.28681004156099</v>
+        <v>32.39241889687619</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>20.39759616535362</v>
+        <v>36.48031157861411</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>15.59165596262288</v>
+        <v>40.79887338438246</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>17.88013615103207</v>
+        <v>47.71563198345282</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>17.94552208057527</v>
+        <v>51.30404573208014</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>11.66246988833445</v>
+        <v>25.72771840567114</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>20.55639602536653</v>
+        <v>42.34246883450967</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18.91321757519525</v>
+        <v>48.56841667371467</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>17.75209230016944</v>
+        <v>5.423412184666663</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.11469994703453</v>
+        <v>43.6518196910545</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>31.25613670237842</v>
+        <v>51.66163407365141</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-2.228682581503854</v>
+        <v>23.46612706481088</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>26.5025330069858</v>
+        <v>33.60766462074346</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>28.28142796933103</v>
+        <v>39.00847724006726</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>27.09191860005324</v>
+        <v>35.16702708430458</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>17.40109709815853</v>
+        <v>38.37091334726236</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-3.229201301180289</v>
+        <v>5.181941236791804</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>36.41349477684326</v>
+        <v>43.40607844302033</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>34.70572184183144</v>
+        <v>51.41407915917105</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>18.26373308192397</v>
+        <v>23.22644859348512</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>16.2590311918696</v>
+        <v>33.36464393763688</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>18.08253687028262</v>
+        <v>38.76429546540353</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>27.551731919829</v>
+        <v>34.92434609521106</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>13.2506011753984</v>
+        <v>38.12568689231253</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>17.13615035780565</v>
+        <v>42.21355789578618</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>24.08665645790347</v>
+        <v>46.5323241790326</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>28.63749843464041</v>
+        <v>53.44917070264651</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.46420684735159</v>
+        <v>57.03758833771556</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>10.77575696918968</v>
+        <v>31.46087856718069</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.77569659884396</v>
+        <v>48.0759518781621</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>28.88868332154771</v>
+        <v>54.30188238982581</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>5.583618761232678</v>
+        <v>11.15650650912622</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>41.03878162986591</v>
+        <v>49.38538088333033</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>58.21152262407237</v>
+        <v>57.39519268812151</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>12.3471958893626</v>
+        <v>29.20002735641075</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>41.07922427174891</v>
+        <v>39.34182632040623</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>40.14349322061164</v>
+        <v>44.74261884440071</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>48.85395854067805</v>
+        <v>40.90115341376409</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>41.8514946599574</v>
+        <v>44.10523759355888</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-9.20157836575045</v>
+        <v>8.348042916823406</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.47106388223806</v>
+        <v>46.5722122397905</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>26.90328427017937</v>
+        <v>54.5801988864753</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>18.0030494103751</v>
+        <v>26.39287237156183</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>13.3416113072945</v>
+        <v>36.53115060038922</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>15.86089110823265</v>
+        <v>41.93078930059031</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.94863169103336</v>
+        <v>38.09080279638854</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>13.43595908965704</v>
+        <v>41.29223040505738</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>18.1589921742208</v>
+        <v>45.38009456683338</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>23.31572139280519</v>
+        <v>49.69885348376968</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>27.26692136090628</v>
+        <v>56.61570763755506</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>28.41227579306667</v>
+        <v>60.20412282157034</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>8.430205443387521</v>
+        <v>34.62734643196737</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>26.33196831797076</v>
+        <v>51.24249764209165</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>25.05498472973303</v>
+        <v>57.4684166105034</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>2.55462681824622</v>
+        <v>14.32308601851767</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>35.05064496535721</v>
+        <v>52.55199251184732</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>57.19270427128734</v>
+        <v>60.56179024477765</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>8.487594939156121</v>
+        <v>32.36692901128143</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>36.38475345808584</v>
+        <v>42.50881086366363</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>39.9509735934758</v>
+        <v>47.90959055873705</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>43.72431452708121</v>
+        <v>44.06808799398507</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>35.12162516456841</v>
+        <v>47.27225899047781</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>1.830073805235088</v>
+        <v>2.231321884536133</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>23.18506172248549</v>
+        <v>40.45523865733915</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>23.39113684982677</v>
+        <v>48.46329030312862</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>11.19423957868598</v>
+        <v>20.27550488862054</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>14.98825887473157</v>
+        <v>30.4136145248996</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>23.36749953327597</v>
+        <v>35.81332142041609</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>20.8019244793287</v>
+        <v>31.97323679683203</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>12.07078465118972</v>
+        <v>35.17452245316341</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>16.46573618959176</v>
+        <v>39.26244919091474</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>16.68868043986743</v>
+        <v>43.5810090228504</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>18.59942196235688</v>
+        <v>50.49781549677462</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>20.6123566870515</v>
+        <v>54.08626021788112</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>10.17304077580995</v>
+        <v>28.50969571299405</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>18.06909367427459</v>
+        <v>45.12464658745924</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>18.89501520120232</v>
+        <v>51.35063795205909</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>5.622754703313493</v>
+        <v>8.20537938611702</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>28.61316092178006</v>
+        <v>46.43403330282652</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>38.88286308259389</v>
+        <v>54.44389603298706</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>2.905057696380581</v>
+        <v>26.24857582501264</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>32.73017880719797</v>
+        <v>36.39028906782497</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>38.17227122853571</v>
+        <v>41.79113695588106</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>27.20724331215284</v>
+        <v>37.94953626083648</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>26.42793384827851</v>
+        <v>41.15356529220801</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>23.51027395500593</v>
+        <v>42.45968724321861</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>27.14505437509244</v>
+        <v>46.77928012755299</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>31.60201187081348</v>
+        <v>53.69785345599624</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>32.57879318111943</v>
+        <v>57.28706267635451</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>23.54186032891334</v>
+        <v>31.70625636425317</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>27.7918430072208</v>
+        <v>48.32495210090613</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.89132160892402</v>
+        <v>54.55227162404654</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>18.46407595702472</v>
+        <v>14.54227786191385</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>26.45843591867698</v>
+        <v>52.77080224632985</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>36.52974481681726</v>
+        <v>60.78087071289113</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-6.749535993409232</v>
+        <v>32.58639907661635</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>26.19428940184003</v>
+        <v>42.7285010244905</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>30.71777687706651</v>
+        <v>48.12958264283364</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>26.45441315399831</v>
+        <v>44.28808739151762</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>21.76575520469718</v>
+        <v>47.49259335378602</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>22.04226973064906</v>
+        <v>51.58155395327313</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.8174848715859</v>
+        <v>55.90262521605601</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>34.47988513221185</v>
+        <v>62.82144270138579</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>36.04485247373739</v>
+        <v>66.41075793055373</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>26.11257936992432</v>
+        <v>40.82900158990756</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>27.65742946514805</v>
+        <v>57.44821630907373</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>32.01506038518004</v>
+        <v>63.67579216854304</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>35.00438817664291</v>
+        <v>48.19398981675207</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>48.20129434370093</v>
+        <v>52.51378717577896</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>53.89937984481415</v>
+        <v>59.43244844007452</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>55.86385301437313</v>
+        <v>63.0216615504693</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>39.64120131690323</v>
+        <v>37.44047275904771</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>49.56083906359002</v>
+        <v>54.05949142111368</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>55.88180933976841</v>
+        <v>60.28679362506992</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-0.145734442794371</v>
+        <v>20.27572201119282</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>42.95741517742695</v>
+        <v>58.50471325988659</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>56.85986599632038</v>
+        <v>66.5147791430484</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>18.56091856898507</v>
+        <v>38.32064922180953</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>49.6751196387254</v>
+        <v>48.4630125742456</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>45.62047135393166</v>
+        <v>53.8640740942723</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>58.27994927142909</v>
+        <v>50.02256358285845</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>54.73971437701397</v>
+        <v>53.22726745746584</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>46.71482635932398</v>
+        <v>57.31620638313771</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>63.84008765754336</v>
+        <v>61.63748212778424</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>70.22551999709852</v>
+        <v>68.55638754818793</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>72.21039653743173</v>
+        <v>72.14570666542411</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>52.1578495564672</v>
+        <v>46.56356785002984</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>66.44461127928378</v>
+        <v>63.18310549040748</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>72.36068129203966</v>
+        <v>69.41066402728475</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>31.95188659120633</v>
+        <v>51.36100437081578</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>42.55652179744863</v>
+        <v>55.68079434088637</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>47.81761081429097</v>
+        <v>62.59946323254226</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>51.46175583713138</v>
+        <v>66.18867389098685</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>34.7788424591001</v>
+        <v>40.60741848489161</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>42.18929258528002</v>
+        <v>57.22651505005857</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>51.86750328528503</v>
+        <v>63.45380570959495</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-1.592152302378189</v>
+        <v>23.44249310184674</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>39.62025244756304</v>
+        <v>61.67151647069923</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>56.05520758621586</v>
+        <v>69.68156827673354</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>15.78977721334405</v>
+        <v>41.48774246646556</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>45.62870834048442</v>
+        <v>51.63018870599197</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>44.24335692936454</v>
+        <v>57.03123739351034</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>56.48123828289647</v>
+        <v>53.18968975600515</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>51.64041059910399</v>
+        <v>56.39448044537053</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>44.44146076052657</v>
+        <v>60.4834125259554</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>61.34699400536539</v>
+        <v>64.80468087670752</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>67.2171533888513</v>
+        <v>71.72359392442198</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>70.16169970503664</v>
+        <v>75.31291058798629</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>49.55639390946865</v>
+        <v>49.73070515798648</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>62.4657791987603</v>
+        <v>66.35032070072262</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>69.13285098841797</v>
+        <v>72.57786768896145</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>31.99633239957247</v>
+        <v>45.24237324617357</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>28.31326502170523</v>
+        <v>49.56196412892191</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>33.61879400752632</v>
+        <v>56.4805853385175</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>36.36779330654823</v>
+        <v>60.0698255361672</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>24.73344306603799</v>
+        <v>34.48878203064001</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>32.83122020821477</v>
+        <v>51.10767824016162</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>38.69580005118899</v>
+        <v>57.33504129364931</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>9.355536314744661</v>
+        <v>17.32464333577687</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>40.19119430107</v>
+        <v>55.55341413245677</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>49.59166269306887</v>
+        <v>63.56353094021497</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>7.807419132708318</v>
+        <v>35.36924613190038</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>40.39123667563068</v>
+        <v>45.51152376969313</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>49.32058021034612</v>
+        <v>50.91264065285182</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>37.3619774216414</v>
+        <v>47.07099487408337</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>43.54223274007014</v>
+        <v>50.27564360641443</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>48.82362873683276</v>
+        <v>54.36463826210402</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>53.76093598326686</v>
+        <v>58.68570752411509</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>59.83492556784774</v>
+        <v>65.60457289210095</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>63.19601475054946</v>
+        <v>69.19391909582842</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>44.61723003874643</v>
+        <v>43.61192555393032</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>57.97612108895045</v>
+        <v>60.23134074892189</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>63.66448538922174</v>
+        <v>66.45896013399934</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>11.99896614805361</v>
+        <v>-17.84530423364569</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>24.47351220064526</v>
+        <v>20.3782635063823</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>21.42528522049714</v>
+        <v>28.38679239397257</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>12.73463110106172</v>
+        <v>0.1982509812238824</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>13.59431596949538</v>
+        <v>10.33551026422211</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>24.35696027605955</v>
+        <v>15.73558966033309</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>21.28886435032047</v>
+        <v>11.89537351932009</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>16.51862692339185</v>
+        <v>15.09572613741742</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>20.11294750729269</v>
+        <v>19.18396961762156</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>17.62033891373149</v>
+        <v>23.50297846747074</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>19.35260522745019</v>
+        <v>30.41957237614682</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>19.36992844247594</v>
+        <v>34.00830255278768</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>14.71234632357973</v>
+        <v>8.43259338914962</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>21.58599246646026</v>
+        <v>25.04670943104501</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>20.0927712301922</v>
+        <v>31.27312659055</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>16.61301661813178</v>
+        <v>-11.87367146889832</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>23.52897639644736</v>
+        <v>26.35463339100275</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>25.8163625019958</v>
+        <v>34.36497351408426</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-0.04888505115899733</v>
+        <v>6.168896976880806</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>19.68287615506934</v>
+        <v>16.30975986575757</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>21.94984356157499</v>
+        <v>21.71098036162212</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>22.09573066149633</v>
+        <v>17.8692480041191</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>12.66215352418798</v>
+        <v>21.07234397902667</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-1.127609080716937</v>
+        <v>-12.1130770958608</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>30.26825214116185</v>
+        <v>26.11095746872084</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.64021830044312</v>
+        <v>34.11948377302011</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>13.36679551012698</v>
+        <v>5.931284008059411</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>12.74778928668707</v>
+        <v>16.0688046622353</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>14.91536601280402</v>
+        <v>21.46886396026119</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>21.35082853692658</v>
+        <v>17.62863254515915</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>11.68347729666102</v>
+        <v>20.82918304868602</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>15.18102517314093</v>
+        <v>24.91740485448591</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>18.84656841697634</v>
+        <v>29.23661818329416</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>22.50557061615533</v>
+        <v>36.15330001750547</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>23.3809975367905</v>
+        <v>39.74203408313829</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>9.247315142646897</v>
+        <v>14.16594246698518</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>24.23784548708846</v>
+        <v>30.78038139439483</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>24.01954313790542</v>
+        <v>37.00678123120784</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>1.136808521442042</v>
+        <v>-6.140388234650086</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>25.77082098506731</v>
+        <v>32.08838349960629</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>39.14644347881187</v>
+        <v>40.09872105111882</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>2.218422082848079</v>
+        <v>11.9029862040434</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>21.54989090685157</v>
+        <v>22.04411050262084</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>21.56952366951838</v>
+        <v>27.44531090731349</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>30.7662702432308</v>
+        <v>23.60356327571165</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>22.86889274187198</v>
+        <v>26.80685716679219</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-4.151491265361692</v>
+        <v>-8.946795193848484</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>26.9160232081231</v>
+        <v>29.27727149179933</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>25.25516016841764</v>
+        <v>37.28578372822645</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>14.44012542495563</v>
+        <v>9.097888019313277</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>12.4274953904612</v>
+        <v>19.23549156326115</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>14.75341789914166</v>
+        <v>24.63553803478741</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>24.3102473280984</v>
+        <v>20.79526948568642</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>13.85656812679109</v>
+        <v>23.99590680512179</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>17.82632185286096</v>
+        <v>28.08412177024869</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>19.33741879514134</v>
+        <v>32.40332772798095</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>22.67317600362555</v>
+        <v>39.32001719390271</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>23.69780062233924</v>
+        <v>42.90874880914228</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>8.253476079601842</v>
+        <v>17.33259056662726</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>22.72127048273001</v>
+        <v>33.94710739807695</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>21.89219735157037</v>
+        <v>40.17349569337173</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-0.4115377661014463</v>
+        <v>-2.973628479849221</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>21.93451608870599</v>
+        <v>35.25517537867873</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>38.87280760379657</v>
+        <v>43.26549885978037</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-0.7084800443228048</v>
+        <v>15.07006811498187</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>18.0305219130412</v>
+        <v>25.21127530705602</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>21.06999222832148</v>
+        <v>30.6124628839672</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>27.36822321822445</v>
+        <v>26.77067811884618</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>18.05067299248518</v>
+        <v>29.97405883082948</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>6.667160496012762</v>
+        <v>-15.06376146480565</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>24.43166183992539</v>
+        <v>23.16005266541564</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>24.40588517441955</v>
+        <v>31.16862989915424</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>12.14263888900709</v>
+        <v>2.980275273554216</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>16.98901652372101</v>
+        <v>13.11771022208351</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>23.08269899555965</v>
+        <v>18.51782488793245</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>20.52520956963984</v>
+        <v>14.67745821504778</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>15.43006649367568</v>
+        <v>17.87795358118163</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>18.39473876909287</v>
+        <v>21.96623112091735</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>19.20845163687527</v>
+        <v>26.2852379898159</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>21.02049447887735</v>
+        <v>33.20187977475783</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>22.45090669056315</v>
+        <v>36.79064092731099</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>14.29960590193133</v>
+        <v>11.21469457773108</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>21.194641109225</v>
+        <v>27.82901107012302</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>21.74926998259571</v>
+        <v>34.05547176026246</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>7.355704906927478</v>
+        <v>-9.091580385826514</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>21.96295523186902</v>
+        <v>29.13697088978464</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>30.1734721836407</v>
+        <v>37.1473593663201</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>1.430417102930612</v>
+        <v>8.951469631253676</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>21.18080031262951</v>
+        <v>19.09250821075333</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>25.82518748316009</v>
+        <v>24.49376397959682</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>20.54070195046496</v>
+        <v>20.65188107939233</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>16.5013179589797</v>
+        <v>23.8551198246918</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>18.05373333944098</v>
+        <v>25.16146876718668</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>18.5072679466686</v>
+        <v>29.48150867066594</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>21.3726186335792</v>
+        <v>36.39991732402498</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>22.2527198229981</v>
+        <v>39.98944304984903</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>16.41320245273485</v>
+        <v>14.40925475545274</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>18.34326729655472</v>
+        <v>31.02731611607024</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>19.74424640555369</v>
+        <v>37.25510509141534</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>16.87109199225063</v>
+        <v>-2.75388063544764</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>21.90555859502915</v>
+        <v>35.47454113327925</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>30.29082677515339</v>
+        <v>43.48513534109</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-3.518534641876656</v>
+        <v>15.29009429404576</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>20.37015914043955</v>
+        <v>25.43152160343906</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>24.17765482124768</v>
+        <v>30.8330110950308</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>22.26154836586279</v>
+        <v>26.99123362999538</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>17.45265670644122</v>
+        <v>30.19494933587126</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>18.01978909697144</v>
+        <v>34.2842608248699</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>21.99917326785245</v>
+        <v>38.60577916010689</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>25.23061908201939</v>
+        <v>45.52443199155292</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>26.57912764723189</v>
+        <v>49.11406371622914</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>19.86738269457424</v>
+        <v>23.53292534473909</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>20.28247179717179</v>
+        <v>40.15150572252119</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>23.93468022435539</v>
+        <v>46.37955103121843</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>17.64302884234978</v>
+        <v>30.89596028628458</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>25.52781679681302</v>
+        <v>35.21620466560617</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.05873585570319</v>
+        <v>42.13470125535812</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>30.70796118436044</v>
+        <v>45.72423087402208</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>20.54814392026498</v>
+        <v>20.14366009339748</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>26.15052511615749</v>
+        <v>36.76204438154778</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>31.20399497050463</v>
+        <v>42.98981604303165</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>-0.2771656545182424</v>
+        <v>2.979752443351263</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>30.45764058036546</v>
+        <v>41.20864108383901</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>40.86204942341215</v>
+        <v>49.21923271402912</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>7.688656821108548</v>
+        <v>21.02453339391562</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.13183898797345</v>
+        <v>31.16622210996733</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>25.85089082630165</v>
+        <v>36.5676915076306</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>38.8927638319374</v>
+        <v>32.72589878347063</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>34.29309535582139</v>
+        <v>35.92981240100076</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>27.33990499274253</v>
+        <v>40.01910222002496</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>37.92512414226998</v>
+        <v>44.34082503844141</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>42.1621214302866</v>
+        <v>51.25956580573146</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>43.63932500692201</v>
+        <v>54.8492014209933</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.98814244853186</v>
+        <v>29.26768056721145</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>39.45115105188709</v>
+        <v>45.88658386890123</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>43.84638257475336</v>
+        <v>52.11461186028978</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>15.51739315135252</v>
+        <v>34.0631551087404</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>20.49016858086356</v>
+        <v>38.38339209414406</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>23.70882961066421</v>
+        <v>45.30189631339206</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>26.53707311811171</v>
+        <v>48.89142348073645</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>16.00295725482222</v>
+        <v>23.31078607742203</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>19.76696557024449</v>
+        <v>39.92924827420032</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>27.20530961685044</v>
+        <v>46.15700839239403</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-0.3998168264156803</v>
+        <v>6.146703782292921</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>28.94352468475584</v>
+        <v>44.37562454680042</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>41.62264274207163</v>
+        <v>52.3862021016661</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>5.566662769797329</v>
+        <v>24.19180689778355</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>26.11926967774837</v>
+        <v>34.33357850603912</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>25.14673676212013</v>
+        <v>39.73503507204626</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>37.51227251675667</v>
+        <v>35.89320522264237</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>32.07516397203132</v>
+        <v>39.09720565927651</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>26.23854467450628</v>
+        <v>43.18648863451145</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>35.76403354335444</v>
+        <v>47.50820405404298</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>39.67647501053225</v>
+        <v>54.42695244992731</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>41.98023574609342</v>
+        <v>58.01658561226273</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>27.71422244566821</v>
+        <v>32.43499813676274</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>36.25649712485152</v>
+        <v>49.05397934551448</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>41.48901200440412</v>
+        <v>55.28199578976538</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>21.31780109413905</v>
+        <v>27.94427867489017</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>17.81713774074511</v>
+        <v>32.26431656973344</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>20.99396943491715</v>
+        <v>39.18277310531792</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>23.13984363506514</v>
+        <v>42.77232981167097</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>16.29125131517364</v>
+        <v>17.19190431738778</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>20.31582671399816</v>
+        <v>33.81016615544584</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>25.05820708534836</v>
+        <v>40.03799866590842</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>10.85527139946259</v>
+        <v>0.02860873151533738</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>32.53214093790355</v>
+        <v>38.25727691880243</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>39.91294256994299</v>
+        <v>46.26791947336656</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>4.681828048847589</v>
+        <v>18.07306525413108</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>27.73676361847143</v>
+        <v>28.21466825750977</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>34.41462221903303</v>
+        <v>33.61619301814167</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.13477047159807</v>
+        <v>29.77426502357892</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>30.82861614207429</v>
+        <v>32.97812350147186</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>34.74808453944174</v>
+        <v>37.06746905035814</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>35.8096944764412</v>
+        <v>41.38898537825119</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>39.94161330940648</v>
+        <v>48.30768609278769</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>42.55811268115575</v>
+        <v>51.89734879536266</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>29.84394890645894</v>
+        <v>26.31597321578309</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>38.72835163563352</v>
+        <v>42.93475407372969</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>43.03637162189709</v>
+        <v>49.16284291342416</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>18.15726141655445</v>
+        <v>-17.59431244579204</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.39824651664102</v>
+        <v>20.62775726896578</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>27.37798933443984</v>
+        <v>28.63595294317364</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>18.78877108241322</v>
+        <v>0.4483869722913916</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>20.23230256183907</v>
+        <v>10.58528074654842</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.42223307882136</v>
+        <v>15.9851389592433</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>25.97926934557109</v>
+        <v>12.14509420372363</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>23.10435883777517</v>
+        <v>15.34536426122239</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>26.45318952445682</v>
+        <v>19.4334372512499</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>25.48162656670513</v>
+        <v>23.75224884129935</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>27.24527845320878</v>
+        <v>30.66857892665192</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>27.28970460541833</v>
+        <v>34.25714480665093</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>23.00004220439562</v>
+        <v>8.682393871763598</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.40985372135689</v>
+        <v>25.29588979970382</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>28.43916788637807</v>
+        <v>31.52204834847638</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>19.3128589765263</v>
+        <v>-11.62190600196478</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>24.91573760068662</v>
+        <v>26.60490067412301</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>27.19680721236175</v>
+        <v>34.61490751286559</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>5.91366741812357</v>
+        <v>6.419806740211843</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>21.31166432372441</v>
+        <v>16.56030399663556</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>24.25352545562756</v>
+        <v>21.96130327060863</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>21.93371576561322</v>
+        <v>18.11974236808956</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>15.66173607745271</v>
+        <v>21.32275569278901</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>4.395508423749735</v>
+        <v>-11.86233159100126</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>31.93480896438643</v>
+        <v>26.36020492968308</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>31.84853044302651</v>
+        <v>34.36839802070008</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>14.66883474655405</v>
+        <v>6.18117368220911</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>16.4067887622946</v>
+        <v>16.3183288171671</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>19.20128258501466</v>
+        <v>21.71816693348322</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>22.8015546038983</v>
+        <v>17.8781069032556</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>17.3649798069636</v>
+        <v>21.07857483848673</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>20.85041142428122</v>
+        <v>25.16662615523652</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>22.97413170416405</v>
+        <v>29.48564221590462</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>26.51621981097967</v>
+        <v>36.40206022332362</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>27.3188690126453</v>
+        <v>39.99062999229207</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>15.43203680534518</v>
+        <v>14.41549662086871</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.85735274907553</v>
+        <v>31.02931542107493</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.08191010622172</v>
+        <v>37.25545664802874</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>1.480505514367557</v>
+        <v>-5.888869086412196</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>23.17290611966705</v>
+        <v>32.3384044451598</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>31.87795202655691</v>
+        <v>40.34840871222778</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>1.379289560542723</v>
+        <v>12.15364961405684</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>17.83073927012183</v>
+        <v>22.2944082703738</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>16.96203896495231</v>
+        <v>27.69538745476089</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>23.57763118521624</v>
+        <v>23.85381127722386</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>20.21417020649089</v>
+        <v>27.05702251015387</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>1.172311747074268</v>
+        <v>-8.696185594531439</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.03767711209392</v>
+        <v>29.52638304537348</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.75219331103482</v>
+        <v>37.53456206906733</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>14.27671262712269</v>
+        <v>9.347641775611155</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>15.71262912568829</v>
+        <v>19.4848797968821</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>18.20567656894631</v>
+        <v>24.88470508690526</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>23.54140214827203</v>
+        <v>21.04460792360388</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>17.99465314551884</v>
+        <v>24.24516267111418</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>21.57763464250796</v>
+        <v>28.33320714736491</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>21.25435596859177</v>
+        <v>32.65221583847963</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>24.8065857393653</v>
+        <v>39.56864147752324</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>25.59552715555738</v>
+        <v>43.15720879587823</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>12.18519685623472</v>
+        <v>17.58200880078462</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>25.66956396483065</v>
+        <v>34.19590550180149</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>25.13556485656801</v>
+        <v>40.42203518766351</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>2.001924916922917</v>
+        <v>-2.722245258289231</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>22.10397112379327</v>
+        <v>35.50506039533744</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>33.36136284851914</v>
+        <v>43.51505059297259</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>1.598517969140438</v>
+        <v>15.32059558569361</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>18.36539685945674</v>
+        <v>25.4614371318809</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>19.32940682859793</v>
+        <v>30.86240348874722</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>24.36986923923842</v>
+        <v>27.02079017893451</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>19.68895421791507</v>
+        <v>30.22408822921526</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>11.03127390800793</v>
+        <v>-14.81289946968931</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>27.04827865458571</v>
+        <v>23.40941662444087</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>27.54635375911312</v>
+        <v>31.41766064282857</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>14.77432833166835</v>
+        <v>3.23028145174445</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>21.11071177504479</v>
+        <v>13.36735088392257</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>26.08029319976512</v>
+        <v>18.76724436548969</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>22.95479360244763</v>
+        <v>14.92704908329202</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>21.16451777721182</v>
+        <v>18.12746188260147</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>24.55534782834439</v>
+        <v>22.21556893067023</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>24.08091206279121</v>
+        <v>26.53437854041559</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>26.21857913125064</v>
+        <v>33.45075650009724</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>27.27375633622793</v>
+        <v>37.0393533545579</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>19.50946172665696</v>
+        <v>11.46436524439529</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>26.53186133078261</v>
+        <v>28.07806161373279</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>27.36808448373787</v>
+        <v>34.30426369138198</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>11.34129471987807</v>
+        <v>-8.839944731822211</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>23.75933983979228</v>
+        <v>29.38710834920497</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>30.48373421015487</v>
+        <v>37.39716353967916</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>5.843665399255656</v>
+        <v>9.202249560386608</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>22.17775139190795</v>
+        <v>19.34292250088723</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>25.91191332357535</v>
+        <v>24.74395704681175</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>20.92347840732802</v>
+        <v>20.90224560659093</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>19.2712386741586</v>
+        <v>24.1054016958357</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>21.09303338033862</v>
+        <v>25.41170996283202</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>20.63403753555513</v>
+        <v>29.73155254648785</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>23.16712481221739</v>
+        <v>36.64969731327872</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>24.03542917674379</v>
+        <v>40.23905870847969</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>18.68827695748914</v>
+        <v>14.65982879275842</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>20.37179824431559</v>
+        <v>31.27726990753766</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>22.18356228352815</v>
+        <v>37.5048002233498</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>17.86440456238687</v>
+        <v>-2.502484266514298</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>20.92400167768896</v>
+        <v>35.72443931941453</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.40379219656025</v>
+        <v>43.73470022752466</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>2.859842842585095</v>
+        <v>15.54063489216086</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>20.32838950300706</v>
+        <v>25.68169655065245</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>24.74883330423286</v>
+        <v>31.08296480985283</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>21.7110539273712</v>
+        <v>27.24135880211159</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>17.79400870103844</v>
+        <v>30.4449918357889</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>19.51981896449623</v>
+        <v>34.53413279959094</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>23.22720724605996</v>
+        <v>38.85545375048369</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>25.82876765583328</v>
+        <v>45.77384268564199</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>27.1622652415011</v>
+        <v>49.36331007593131</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>21.53495712874985</v>
+        <v>23.78313012041534</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>21.4506946355854</v>
+        <v>40.40109023551682</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>25.09980198750584</v>
+        <v>46.62887687312664</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>14.65024326950019</v>
+        <v>31.1459551128892</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>21.6293382355695</v>
+        <v>35.46600216523066</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>24.92121055360768</v>
+        <v>42.38423486466107</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>25.83559317265405</v>
+        <v>45.97360015247446</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>17.5671624577814</v>
+        <v>20.39398776582883</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>23.82131373508642</v>
+        <v>37.01175179488078</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>26.53931567352814</v>
+        <v>43.23926479781963</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>2.021034386263167</v>
+        <v>3.230902480518271</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>28.92353579030372</v>
+        <v>41.45829291860471</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>36.03691810115223</v>
+        <v>49.46855124947425</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>4.580400713371031</v>
+        <v>21.27482762643493</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>23.09039179848942</v>
+        <v>31.41615068172124</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>19.86826075572791</v>
+        <v>36.81739884775075</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.8609421600987</v>
+        <v>32.97577757932018</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.7192795054731</v>
+        <v>36.17960851763533</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>22.57494617184953</v>
+        <v>40.26872781280829</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>30.50639111203725</v>
+        <v>44.59025323943686</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>34.51301834875287</v>
+        <v>51.50873010634396</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>35.32334266164979</v>
+        <v>55.09820138749333</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>23.46660406557825</v>
+        <v>29.51763896503659</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>33.19082185906932</v>
+        <v>46.13592199070743</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>35.72126510514707</v>
+        <v>52.36369131202255</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>16.19061623733103</v>
+        <v>34.31301399061923</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>19.70440028330007</v>
+        <v>38.63305364890246</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>22.84366462963183</v>
+        <v>45.55129397753299</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>24.54386747498054</v>
+        <v>49.14065681441994</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>15.75215222220323</v>
+        <v>23.56097780848555</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>20.73466308281454</v>
+        <v>40.17881974296918</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>25.19750987328898</v>
+        <v>46.40632120305841</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>3.336608020485684</v>
+        <v>6.397717886443193</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.52234885288943</v>
+        <v>44.62514044694606</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>38.28308548664895</v>
+        <v>52.63538470261599</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>4.02088182466872</v>
+        <v>24.4419651842658</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>22.28435967891077</v>
+        <v>34.58337112772429</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>20.74411917920983</v>
+        <v>39.9846064630099</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>30.77417053942974</v>
+        <v>36.14294807029196</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>30.07118701041712</v>
+        <v>39.34686582387613</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>23.82338571805012</v>
+        <v>43.43597827529064</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>29.56841981928106</v>
+        <v>47.75749630413114</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>33.55071726172532</v>
+        <v>54.67598079918926</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>34.94917116266706</v>
+        <v>58.26544962729</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>22.38552120399969</v>
+        <v>32.68482058646785</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>31.59111844459947</v>
+        <v>49.30318151612508</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>34.80317745129153</v>
+        <v>55.53093929076729</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>23.33532432310957</v>
+        <v>28.19439002664027</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>21.41851005434073</v>
+        <v>32.51423060236223</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>24.12148126471796</v>
+        <v>39.43242324938709</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>25.91324001583175</v>
+        <v>43.0218156236829</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>20.06567762683826</v>
+        <v>17.44234851799334</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>23.96902831826896</v>
+        <v>34.05999010124609</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>27.92668269786911</v>
+        <v>40.28756395078031</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>11.98639913839744</v>
+        <v>0.2798752735806467</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>30.21872766726848</v>
+        <v>38.50704526679172</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>36.12198544927929</v>
+        <v>46.51735451990251</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>7.69910291976511</v>
+        <v>18.32347600516713</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>26.88725240574303</v>
+        <v>28.46471335027892</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>31.63198275405864</v>
+        <v>33.86601687723046</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>25.99199710816261</v>
+        <v>30.02426034413148</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.57582043087367</v>
+        <v>33.22803614427235</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>32.43531238259155</v>
+        <v>37.31721116680458</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>33.2859164462546</v>
+        <v>41.63853011148822</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>36.91046379727458</v>
+        <v>48.55696692754876</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>38.96323696521597</v>
+        <v>52.14646529428629</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>28.49433171074223</v>
+        <v>26.56604814109952</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>36.4917651654407</v>
+        <v>43.18420872752145</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>39.87184107261704</v>
+        <v>49.412038894478</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.66292194483714</v>
+        <v>-12.37827497996429</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>38.00362463488178</v>
+        <v>25.84599980990564</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>36.55328712147086</v>
+        <v>33.85438706620235</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>31.73771011997193</v>
+        <v>5.665232309561961</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>32.8662559351702</v>
+        <v>15.80296487668958</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>39.69982124526178</v>
+        <v>21.20291610413554</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>36.79778536841998</v>
+        <v>17.36284690889605</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>34.56557201361515</v>
+        <v>20.56359927246675</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>37.09543070290952</v>
+        <v>24.6517165775629</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>36.98151193991445</v>
+        <v>28.97062055508176</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>38.30379550914806</v>
+        <v>35.88741421003797</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>38.34154332284589</v>
+        <v>39.47603212572827</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>34.47085141946387</v>
+        <v>13.89967352541047</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>39.25137946703607</v>
+        <v>30.51435467223658</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>38.4794611800529</v>
+        <v>36.74062314735923</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.71822775368193</v>
+        <v>-6.40583791558603</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>32.89810862182843</v>
+        <v>31.82317409507747</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>34.70624191392439</v>
+        <v>39.83337253101118</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>21.21566457514002</v>
+        <v>11.63668267256051</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>32.49870954438658</v>
+        <v>21.77801889140804</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>34.42079367620575</v>
+        <v>27.17911118138548</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>33.72047320218151</v>
+        <v>23.33752583048889</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.27651409834028</v>
+        <v>26.54102159310529</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>18.68994032897405</v>
+        <v>-6.646068086082405</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>39.47001020977936</v>
+        <v>31.57867353392763</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>39.5263535200942</v>
+        <v>39.58705820388721</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>31.90656358183929</v>
+        <v>11.39824509301028</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>33.83603820246346</v>
+        <v>21.53623903546796</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>35.77012607863504</v>
+        <v>26.93617016278714</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>35.94610141531231</v>
+        <v>23.09608569108983</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>33.17794576444258</v>
+        <v>26.29703594438641</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>35.53375367847907</v>
+        <v>30.38513157293565</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>39.96684165287505</v>
+        <v>34.70424003123301</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>42.86667636528252</v>
+        <v>41.62112161293683</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>43.35294243849242</v>
+        <v>45.20974341684249</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>33.54062987251555</v>
+        <v>19.63300236191427</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>43.97854484255076</v>
+        <v>36.24800639926119</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>44.12265539443573</v>
+        <v>42.47425754893348</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>17.21167385188935</v>
+        <v>-0.672574916387898</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>32.01400824174983</v>
+        <v>37.55690397426363</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>39.47334741386049</v>
+        <v>45.56709983521208</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>22.74428626225996</v>
+        <v>17.37075166400647</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>34.1936373604991</v>
+        <v>27.51234929736805</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>33.98543941239433</v>
+        <v>32.91342149379571</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>38.83461640182793</v>
+        <v>29.07182086658375</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>34.65517306814893</v>
+        <v>32.27551455009896</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>16.68979633629033</v>
+        <v>-3.479817658746892</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>37.56881086122889</v>
+        <v>34.74495608134865</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>36.9327965108565</v>
+        <v>42.75332668260674</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>31.1675033142774</v>
+        <v>14.56481763133312</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.66191222687167</v>
+        <v>24.70289446223788</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>34.65834271187263</v>
+        <v>30.10281276253184</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>36.65070645722618</v>
+        <v>26.26269115566359</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>33.59731837402943</v>
+        <v>29.46372822383015</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>36.11881094210895</v>
+        <v>33.55181701134293</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>38.20879373987359</v>
+        <v>37.87091810081452</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>40.99886720520258</v>
+        <v>44.78780731368241</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>41.56642290105167</v>
+        <v>48.37642666645334</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>30.57245113292074</v>
+        <v>22.79961898831747</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>40.92036177387308</v>
+        <v>39.41470092812088</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>40.64322663201361</v>
+        <v>45.64094053566092</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>17.5394324055708</v>
+        <v>2.494153362224356</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>31.20080772658667</v>
+        <v>40.72366437542851</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>40.36672989918835</v>
+        <v>48.73384616541958</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>21.49085565093147</v>
+        <v>20.53780209988887</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>33.00875626625437</v>
+        <v>30.67948262557505</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>33.93704441481704</v>
+        <v>36.08054199375661</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>37.85808935817282</v>
+        <v>32.23890423219828</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>33.00292018816769</v>
+        <v>35.44268473559251</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>23.6369153681928</v>
+        <v>-9.59676646009606</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>36.50775886182132</v>
+        <v>28.62775472076547</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>36.55289968979204</v>
+        <v>36.63619032187708</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>30.47626036412476</v>
+        <v>8.447222352878644</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>36.0479277180767</v>
+        <v>18.58513058555949</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>39.78451476038344</v>
+        <v>23.98511708207312</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>34.83468748919335</v>
+        <v>20.14489735403268</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>34.79153457597338</v>
+        <v>23.34579246564991</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>36.6290848442355</v>
+        <v>27.43394382970931</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>38.18476528954474</v>
+        <v>31.7528458293273</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>39.96766019034855</v>
+        <v>38.66968736056734</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>40.75713105745621</v>
+        <v>42.25833625124679</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>34.02428673456892</v>
+        <v>16.68174046652726</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>39.84824607798178</v>
+        <v>33.29662206391848</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>40.2404620990778</v>
+        <v>39.52293406882464</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>22.34403788084617</v>
+        <v>-3.623781080446147</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>31.1129371026895</v>
+        <v>34.60547734707293</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>35.68162318589536</v>
+        <v>42.61572413513719</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>20.12231824062244</v>
+        <v>14.41922107745794</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>31.97762959523993</v>
+        <v>24.56073298796904</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>34.50605778581344</v>
+        <v>29.96186054990111</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>31.36760705296187</v>
+        <v>26.12012465576951</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.43333433041496</v>
+        <v>29.32376318935863</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>32.01549881129728</v>
+        <v>30.63002016973715</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>31.81584747234827</v>
+        <v>34.94995525443429</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>33.53489435309134</v>
+        <v>41.86856367574458</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>34.14597895463925</v>
+        <v>45.45797711219294</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.96056487634315</v>
+        <v>19.87713938226208</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>31.18032735453263</v>
+        <v>36.49576591502242</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>32.41089375428632</v>
+        <v>42.72340615827014</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>27.8419817580454</v>
+        <v>2.713886357872671</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>30.93946294609914</v>
+        <v>40.94301528053384</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>36.67283329615304</v>
+        <v>48.95346780767275</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>18.02433989706289</v>
+        <v>20.75781337935647</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>31.9623241888622</v>
+        <v>30.89971403087933</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>34.85244350814037</v>
+        <v>36.30107532816001</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>33.1364383707413</v>
+        <v>32.45944486632268</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>30.51886546892923</v>
+        <v>35.66356037075482</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>31.52487437395348</v>
+        <v>39.75274565650832</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>33.5174779543725</v>
+        <v>44.07415915224968</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>35.462502289195</v>
+        <v>50.99301175049018</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>36.46541023956774</v>
+        <v>54.58253119834254</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>31.7896745290896</v>
+        <v>29.000743378664</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>32.20176142666646</v>
+        <v>45.61988893853643</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>34.81960639375402</v>
+        <v>51.84778552534081</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>31.10468954610344</v>
+        <v>36.36449145551595</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>38.60812075549738</v>
+        <v>40.68463101764726</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>40.69948864520312</v>
+        <v>47.60332737700926</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>41.61835513614723</v>
+        <v>51.19274470507824</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>35.47241464051245</v>
+        <v>25.61152448690158</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>38.99769610059975</v>
+        <v>42.23047395245706</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>41.67699880951663</v>
+        <v>48.45809687893282</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>17.43067533177246</v>
+        <v>8.44749919942436</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>35.94187568279091</v>
+        <v>46.67709499893229</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>40.94936712080228</v>
+        <v>54.68754494544035</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>24.99189728442349</v>
+        <v>26.49223224206336</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>38.0776177894877</v>
+        <v>36.63439430479426</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>34.87242462948604</v>
+        <v>42.03573550561171</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>42.99809034912759</v>
+        <v>38.194089782058</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>41.13545769630445</v>
+        <v>41.39840320375393</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>35.69756579308204</v>
+        <v>45.48756681712885</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>42.69911716049629</v>
+        <v>49.80918479708751</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>45.266144041346</v>
+        <v>56.72812533266281</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>45.8572239534898</v>
+        <v>60.31764867018072</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>37.40667088837761</v>
+        <v>34.73547836623234</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>43.43595644347412</v>
+        <v>51.35494685464803</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>45.24851919163454</v>
+        <v>57.58282612126655</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>30.73799595601581</v>
+        <v>39.53165479917837</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>35.64257433058398</v>
+        <v>43.85178696940559</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>37.61657636766709</v>
+        <v>50.77049095710041</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>39.09227595810871</v>
+        <v>54.35990583357457</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>32.5393181754596</v>
+        <v>28.77861899527162</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>35.20155098628261</v>
+        <v>45.3976463680697</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>38.97929615246714</v>
+        <v>51.62525775078817</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>18.11575570466</v>
+        <v>11.61441906584745</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>36.04483511643524</v>
+        <v>49.84404698816482</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>42.48890346115341</v>
+        <v>57.85448285834426</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>23.92888954716226</v>
+        <v>29.65947427410757</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>36.8293147275461</v>
+        <v>39.80171922788568</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>34.97907448841205</v>
+        <v>45.2030475967247</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>42.32701350267674</v>
+        <v>41.36136474663286</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>40.3439832252505</v>
+        <v>44.56576498604059</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>35.78780830867255</v>
+        <v>48.65492175509738</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>41.32876715217009</v>
+        <v>52.97653233906377</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>43.79320190393383</v>
+        <v>59.89548050236161</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>44.90798385344576</v>
+        <v>63.48500138638488</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>35.80346748487767</v>
+        <v>37.90276446316116</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>41.52656007515775</v>
+        <v>54.52231085761346</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>43.91567079159071</v>
+        <v>60.75017857653123</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>31.95178676794091</v>
+        <v>33.41279582720838</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>31.31991879615902</v>
+        <v>37.7327289059489</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>33.24804261314605</v>
+        <v>44.65138520955216</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>34.39676606656133</v>
+        <v>48.2408296255858</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>30.09620541885176</v>
+        <v>22.65975469735955</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>32.62969489431278</v>
+        <v>39.2785817077237</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>35.23871729149224</v>
+        <v>45.50626548537983</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>22.51480896250188</v>
+        <v>5.496341481135833</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>35.76346186706377</v>
+        <v>43.72571682296612</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>39.64167341196721</v>
+        <v>51.73621769570448</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>20.69443578738121</v>
+        <v>23.54075009508304</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>34.80256645698302</v>
+        <v>33.68282644134413</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>38.04384094294453</v>
+        <v>39.084223006548</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>34.20352021093417</v>
+        <v>35.24244201352442</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>36.52453871776569</v>
+        <v>38.44670029085651</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>38.5213420299155</v>
+        <v>42.53591963552859</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>39.62394539118257</v>
+        <v>46.85733112658707</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>42.23384417810951</v>
+        <v>53.77623160838291</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>43.64489491650231</v>
+        <v>57.36578203319621</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>35.78615566511782</v>
+        <v>31.78375700690598</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>41.50693064085031</v>
+        <v>48.40310304655534</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>43.69910315489782</v>
+        <v>54.63104316316051</v>
       </c>
     </row>
   </sheetData>
